--- a/performance.xlsx
+++ b/performance.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="44">
   <si>
-    <t xml:space="preserve">This table contains edited value to observe the behavior of the graph, if the value is greater or less than 100, -100, it will be fixed to that value</t>
+    <t xml:space="preserve">Table1. This table contains edited value to observe the behavior of the graph, if the value is greater or less than 100, -100, it will be fixed to that value</t>
   </si>
   <si>
-    <t xml:space="preserve">Original values shows the off values reported by TTC mark as red to segment them</t>
+    <t xml:space="preserve">Table 2. Original values shows the off values reported by TTC mark as red to segment them</t>
   </si>
   <si>
     <t xml:space="preserve">Detector</t>
@@ -37,761 +37,121 @@
     <t xml:space="preserve">SHITOMASI</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SHITOMASI </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRISK</t>
-    </r>
+    <t xml:space="preserve">SHITOMASI BRISK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SHITOMASI </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRIEF</t>
-    </r>
+    <t xml:space="preserve">SHITOMASI BRIEF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SHITOMASI </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ORB</t>
-    </r>
+    <t xml:space="preserve">SHITOMASI ORB</t>
   </si>
   <si>
     <t xml:space="preserve">SHITOMASI FREAK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SHITOMASI </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIFT</t>
-    </r>
+    <t xml:space="preserve">SHITOMASI SIFT</t>
   </si>
   <si>
     <t xml:space="preserve">HARRIS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">HARRIS </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRISK</t>
-    </r>
+    <t xml:space="preserve">HARRIS BRISK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">HARRIS </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRIEF</t>
-    </r>
+    <t xml:space="preserve">HARRIS BRIEF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">HARRIS </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ORB</t>
-    </r>
+    <t xml:space="preserve">HARRIS ORB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">HARRIS </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FREAK</t>
-    </r>
+    <t xml:space="preserve">HARRIS FREAK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">HARRIS </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIFT</t>
-    </r>
+    <t xml:space="preserve">HARRIS SIFT</t>
   </si>
   <si>
     <t xml:space="preserve">FAST</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FAST </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRISK</t>
-    </r>
+    <t xml:space="preserve">FAST BRISK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FAST </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRIEF</t>
-    </r>
+    <t xml:space="preserve">FAST BRIEF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FAST </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ORB</t>
-    </r>
+    <t xml:space="preserve">FAST ORB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FAST </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FREAK</t>
-    </r>
+    <t xml:space="preserve">FAST FREAK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">FAST </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIFT</t>
-    </r>
+    <t xml:space="preserve">FAST SIFT</t>
   </si>
   <si>
     <t xml:space="preserve">BRISK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BRISK </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRISK</t>
-    </r>
+    <t xml:space="preserve">BRISK BRISK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BRISK </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRIEF</t>
-    </r>
+    <t xml:space="preserve">BRISK BRIEF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BRISK </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ORB</t>
-    </r>
+    <t xml:space="preserve">BRISK ORB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">BRISK </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FREAK</t>
-    </r>
+    <t xml:space="preserve">BRISK FREAK</t>
   </si>
   <si>
     <t xml:space="preserve">ORB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ORB </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRISK</t>
-    </r>
+    <t xml:space="preserve">ORB BRISK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ORB </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRIEF</t>
-    </r>
+    <t xml:space="preserve">ORB BRIEF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ORB </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ORB</t>
-    </r>
+    <t xml:space="preserve">ORB ORB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ORB </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FREAK</t>
-    </r>
+    <t xml:space="preserve">ORB FREAK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ORB </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIFT</t>
-    </r>
+    <t xml:space="preserve">ORB SIFT</t>
   </si>
   <si>
     <t xml:space="preserve">AKAZE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AKAZE </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRISK</t>
-    </r>
+    <t xml:space="preserve">AKAZE BRISK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AKAZE </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRIEF</t>
-    </r>
+    <t xml:space="preserve">AKAZE BRIEF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AKAZE </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ORB</t>
-    </r>
+    <t xml:space="preserve">AKAZE ORB</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AKAZE </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FREAK</t>
-    </r>
+    <t xml:space="preserve">AKAZE FREAK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AKAZE </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">AKAZE</t>
-    </r>
+    <t xml:space="preserve">AKAZE AKAZE</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AKAZE </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIFT</t>
-    </r>
+    <t xml:space="preserve">AKAZE SIFT</t>
   </si>
   <si>
     <t xml:space="preserve">SIFT</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SIFT </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">BRISK</t>
-    </r>
+    <t xml:space="preserve">SIFT BRISK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SIFT </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">FREAK</t>
-    </r>
+    <t xml:space="preserve">SIFT FREAK</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SIFT </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SIFT</t>
-    </r>
+    <t xml:space="preserve">SIFT SIFT</t>
   </si>
 </sst>
 </file>
@@ -801,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -840,24 +200,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -875,18 +222,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FFFF420E"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -941,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -965,21 +306,22 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -987,50 +329,29 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1039,11 +360,7 @@
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFED1C24"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1138,8 +455,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.483295411025254"/>
-          <c:y val="0.065709601666002"/>
+          <c:x val="0.483283770388393"/>
+          <c:y val="0.0657568238213399"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1190,6 +507,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1360,6 +679,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1530,6 +851,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1700,6 +1023,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1870,6 +1195,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2040,6 +1367,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2210,6 +1539,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2380,6 +1711,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2550,6 +1883,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2711,7 +2046,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="star"/>
+            <c:symbol val="square"/>
             <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
@@ -2720,6 +2055,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2890,6 +2227,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3060,6 +2399,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3230,6 +2571,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3400,6 +2743,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3570,6 +2915,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3740,6 +3087,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3910,6 +3259,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4080,6 +3431,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4250,6 +3603,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4420,6 +3775,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4590,6 +3947,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4760,6 +4119,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -4930,6 +4291,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5100,6 +4463,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5270,6 +4635,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5440,6 +4807,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5610,6 +4979,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5780,6 +5151,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -5950,6 +5323,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6120,6 +5495,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6290,6 +5667,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6460,6 +5839,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6630,6 +6011,8 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -6765,11 +6148,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39239431"/>
-        <c:axId val="64384055"/>
+        <c:axId val="7647541"/>
+        <c:axId val="68343585"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39239431"/>
+        <c:axId val="7647541"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6803,7 +6186,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6825,12 +6208,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64384055"/>
+        <c:crossAx val="68343585"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64384055"/>
+        <c:axId val="68343585"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6873,7 +6256,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6895,7 +6278,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39239431"/>
+        <c:crossAx val="7647541"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6954,9 +6337,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>751680</xdr:colOff>
+      <xdr:colOff>751320</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6965,7 +6348,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="214920" y="8799120"/>
-        <a:ext cx="15979680" cy="8124480"/>
+        <a:ext cx="15979320" cy="8124120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6986,7 +6369,7 @@
   <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
+      <selection pane="topLeft" activeCell="Y47" activeCellId="0" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7206,121 +6589,121 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="6" t="n">
         <v>16.0453</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="6" t="n">
         <v>16.3332</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="6" t="n">
         <v>13.3505</v>
       </c>
-      <c r="F4" s="7" t="n">
+      <c r="F4" s="6" t="n">
         <v>13.171</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="6" t="n">
         <v>14.1087</v>
       </c>
-      <c r="H4" s="8" t="n">
+      <c r="H4" s="7" t="n">
         <v>13.3017</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="7" t="n">
         <v>14.9599</v>
       </c>
-      <c r="J4" s="8" t="n">
+      <c r="J4" s="7" t="n">
         <v>16.7581</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="7" t="n">
         <v>19.2255</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="7" t="n">
         <v>14.8146</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="M4" s="6" t="n">
         <v>22.3154</v>
       </c>
-      <c r="N4" s="7" t="n">
+      <c r="N4" s="6" t="n">
         <v>19.8683</v>
       </c>
-      <c r="O4" s="7" t="n">
+      <c r="O4" s="6" t="n">
         <v>25.9323</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="P4" s="6" t="n">
         <v>21.7625</v>
       </c>
-      <c r="Q4" s="7" t="n">
+      <c r="Q4" s="6" t="n">
         <v>16.801</v>
       </c>
-      <c r="R4" s="8" t="n">
+      <c r="R4" s="7" t="n">
         <v>17.9263</v>
       </c>
-      <c r="S4" s="8" t="n">
+      <c r="S4" s="7" t="n">
         <v>19.5945</v>
       </c>
-      <c r="T4" s="8" t="n">
+      <c r="T4" s="7" t="n">
         <v>16.9679</v>
       </c>
       <c r="V4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="7" t="n">
+      <c r="X4" s="6" t="n">
         <v>16.0453</v>
       </c>
-      <c r="Y4" s="7" t="n">
+      <c r="Y4" s="6" t="n">
         <v>16.3332</v>
       </c>
-      <c r="Z4" s="7" t="n">
+      <c r="Z4" s="6" t="n">
         <v>13.3505</v>
       </c>
-      <c r="AA4" s="7" t="n">
+      <c r="AA4" s="6" t="n">
         <v>13.171</v>
       </c>
-      <c r="AB4" s="7" t="n">
+      <c r="AB4" s="6" t="n">
         <v>14.1087</v>
       </c>
-      <c r="AC4" s="8" t="n">
+      <c r="AC4" s="7" t="n">
         <v>13.3017</v>
       </c>
-      <c r="AD4" s="8" t="n">
+      <c r="AD4" s="7" t="n">
         <v>14.9599</v>
       </c>
-      <c r="AE4" s="8" t="n">
+      <c r="AE4" s="7" t="n">
         <v>16.7581</v>
       </c>
-      <c r="AF4" s="8" t="n">
+      <c r="AF4" s="7" t="n">
         <v>19.2255</v>
       </c>
-      <c r="AG4" s="8" t="n">
+      <c r="AG4" s="7" t="n">
         <v>14.8146</v>
       </c>
-      <c r="AH4" s="7" t="n">
+      <c r="AH4" s="6" t="n">
         <v>22.3154</v>
       </c>
-      <c r="AI4" s="7" t="n">
+      <c r="AI4" s="6" t="n">
         <v>19.8683</v>
       </c>
-      <c r="AJ4" s="7" t="n">
+      <c r="AJ4" s="6" t="n">
         <v>25.9323</v>
       </c>
-      <c r="AK4" s="7" t="n">
+      <c r="AK4" s="6" t="n">
         <v>21.7625</v>
       </c>
-      <c r="AL4" s="7" t="n">
+      <c r="AL4" s="6" t="n">
         <v>16.801</v>
       </c>
-      <c r="AM4" s="8" t="n">
+      <c r="AM4" s="7" t="n">
         <v>17.9263</v>
       </c>
-      <c r="AN4" s="8" t="n">
+      <c r="AN4" s="7" t="n">
         <v>19.5945</v>
       </c>
-      <c r="AO4" s="8" t="n">
+      <c r="AO4" s="7" t="n">
         <v>16.9679</v>
       </c>
     </row>
@@ -7328,121 +6711,121 @@
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="6" t="n">
         <v>16.3061</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="6" t="n">
         <v>18.0269</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>16.3147</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>16.6486</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>14.7499</v>
       </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="7" t="n">
         <v>15.2876</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="7" t="n">
         <v>15.3151</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="7" t="n">
         <v>17.2526</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="7" t="n">
         <v>16.9831</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="7" t="n">
         <v>18.6303</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>19.6966</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="N5" s="6" t="n">
         <v>21.3758</v>
       </c>
-      <c r="O5" s="7" t="n">
+      <c r="O5" s="6" t="n">
         <v>25.0646</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="6" t="n">
         <v>22.6175</v>
       </c>
-      <c r="Q5" s="7" t="n">
+      <c r="Q5" s="6" t="n">
         <v>25.8654</v>
       </c>
-      <c r="R5" s="8" t="n">
+      <c r="R5" s="7" t="n">
         <v>25.4854</v>
       </c>
-      <c r="S5" s="8" t="n">
+      <c r="S5" s="7" t="n">
         <v>25.0413</v>
       </c>
-      <c r="T5" s="8" t="n">
+      <c r="T5" s="7" t="n">
         <v>28.1061</v>
       </c>
       <c r="V5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="6" t="s">
+      <c r="W5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="X5" s="7" t="n">
+      <c r="X5" s="6" t="n">
         <v>16.3061</v>
       </c>
-      <c r="Y5" s="7" t="n">
+      <c r="Y5" s="6" t="n">
         <v>18.0269</v>
       </c>
-      <c r="Z5" s="7" t="n">
+      <c r="Z5" s="6" t="n">
         <v>16.3147</v>
       </c>
-      <c r="AA5" s="7" t="n">
+      <c r="AA5" s="6" t="n">
         <v>16.6486</v>
       </c>
-      <c r="AB5" s="7" t="n">
+      <c r="AB5" s="6" t="n">
         <v>14.7499</v>
       </c>
-      <c r="AC5" s="8" t="n">
+      <c r="AC5" s="7" t="n">
         <v>15.2876</v>
       </c>
-      <c r="AD5" s="8" t="n">
+      <c r="AD5" s="7" t="n">
         <v>15.3151</v>
       </c>
-      <c r="AE5" s="8" t="n">
+      <c r="AE5" s="7" t="n">
         <v>17.2526</v>
       </c>
-      <c r="AF5" s="8" t="n">
+      <c r="AF5" s="7" t="n">
         <v>16.9831</v>
       </c>
-      <c r="AG5" s="8" t="n">
+      <c r="AG5" s="7" t="n">
         <v>18.6303</v>
       </c>
-      <c r="AH5" s="7" t="n">
+      <c r="AH5" s="6" t="n">
         <v>19.6966</v>
       </c>
-      <c r="AI5" s="7" t="n">
+      <c r="AI5" s="6" t="n">
         <v>21.3758</v>
       </c>
-      <c r="AJ5" s="7" t="n">
+      <c r="AJ5" s="6" t="n">
         <v>25.0646</v>
       </c>
-      <c r="AK5" s="7" t="n">
+      <c r="AK5" s="6" t="n">
         <v>22.6175</v>
       </c>
-      <c r="AL5" s="7" t="n">
+      <c r="AL5" s="6" t="n">
         <v>25.8654</v>
       </c>
-      <c r="AM5" s="8" t="n">
+      <c r="AM5" s="7" t="n">
         <v>25.4854</v>
       </c>
-      <c r="AN5" s="8" t="n">
+      <c r="AN5" s="7" t="n">
         <v>25.0413</v>
       </c>
-      <c r="AO5" s="8" t="n">
+      <c r="AO5" s="7" t="n">
         <v>28.1061</v>
       </c>
     </row>
@@ -7450,121 +6833,121 @@
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="6" t="n">
         <v>18.3349</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="6" t="n">
         <v>17.2831</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="6" t="n">
         <v>14.7372</v>
       </c>
-      <c r="F6" s="7" t="n">
+      <c r="F6" s="6" t="n">
         <v>14.5337</v>
       </c>
-      <c r="G6" s="7" t="n">
+      <c r="G6" s="6" t="n">
         <v>14.6694</v>
       </c>
-      <c r="H6" s="8" t="n">
+      <c r="H6" s="7" t="n">
         <v>15.4937</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="7" t="n">
         <v>16.255</v>
       </c>
-      <c r="J6" s="8" t="n">
+      <c r="J6" s="7" t="n">
         <v>16.9165</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="7" t="n">
         <v>17.5173</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="7" t="n">
         <v>18.393</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="6" t="n">
         <v>19.6853</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="6" t="n">
         <v>18.9835</v>
       </c>
-      <c r="O6" s="7" t="n">
+      <c r="O6" s="6" t="n">
         <v>24.0407</v>
       </c>
-      <c r="P6" s="7" t="n">
+      <c r="P6" s="6" t="n">
         <v>26.2702</v>
       </c>
-      <c r="Q6" s="7" t="n">
+      <c r="Q6" s="6" t="n">
         <v>22.7926</v>
       </c>
-      <c r="R6" s="8" t="n">
+      <c r="R6" s="7" t="n">
         <v>19.861</v>
       </c>
-      <c r="S6" s="8" t="n">
+      <c r="S6" s="7" t="n">
         <v>21.0867</v>
       </c>
-      <c r="T6" s="8" t="n">
+      <c r="T6" s="7" t="n">
         <v>27.5323</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="W6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="7" t="n">
+      <c r="X6" s="6" t="n">
         <v>18.3349</v>
       </c>
-      <c r="Y6" s="7" t="n">
+      <c r="Y6" s="6" t="n">
         <v>17.2831</v>
       </c>
-      <c r="Z6" s="7" t="n">
+      <c r="Z6" s="6" t="n">
         <v>14.7372</v>
       </c>
-      <c r="AA6" s="7" t="n">
+      <c r="AA6" s="6" t="n">
         <v>14.5337</v>
       </c>
-      <c r="AB6" s="7" t="n">
+      <c r="AB6" s="6" t="n">
         <v>14.6694</v>
       </c>
-      <c r="AC6" s="8" t="n">
+      <c r="AC6" s="7" t="n">
         <v>15.4937</v>
       </c>
-      <c r="AD6" s="8" t="n">
+      <c r="AD6" s="7" t="n">
         <v>16.255</v>
       </c>
-      <c r="AE6" s="8" t="n">
+      <c r="AE6" s="7" t="n">
         <v>16.9165</v>
       </c>
-      <c r="AF6" s="8" t="n">
+      <c r="AF6" s="7" t="n">
         <v>17.5173</v>
       </c>
-      <c r="AG6" s="8" t="n">
+      <c r="AG6" s="7" t="n">
         <v>18.393</v>
       </c>
-      <c r="AH6" s="7" t="n">
+      <c r="AH6" s="6" t="n">
         <v>19.6853</v>
       </c>
-      <c r="AI6" s="7" t="n">
+      <c r="AI6" s="6" t="n">
         <v>18.9835</v>
       </c>
-      <c r="AJ6" s="7" t="n">
+      <c r="AJ6" s="6" t="n">
         <v>24.0407</v>
       </c>
-      <c r="AK6" s="7" t="n">
+      <c r="AK6" s="6" t="n">
         <v>26.2702</v>
       </c>
-      <c r="AL6" s="7" t="n">
+      <c r="AL6" s="6" t="n">
         <v>22.7926</v>
       </c>
-      <c r="AM6" s="8" t="n">
+      <c r="AM6" s="7" t="n">
         <v>19.861</v>
       </c>
-      <c r="AN6" s="8" t="n">
+      <c r="AN6" s="7" t="n">
         <v>21.0867</v>
       </c>
-      <c r="AO6" s="8" t="n">
+      <c r="AO6" s="7" t="n">
         <v>27.5323</v>
       </c>
     </row>
@@ -7575,58 +6958,58 @@
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="6" t="n">
         <v>15.3175</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="6" t="n">
         <v>16.4543</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="6" t="n">
         <v>13.859</v>
       </c>
-      <c r="F7" s="7" t="n">
+      <c r="F7" s="6" t="n">
         <v>13.9581</v>
       </c>
-      <c r="G7" s="7" t="n">
+      <c r="G7" s="6" t="n">
         <v>13.1205</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="7" t="n">
         <v>13.5054</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="7" t="n">
         <v>13.6087</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="7" t="n">
         <v>13.1805</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="7" t="n">
         <v>16.8652</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="7" t="n">
         <v>12.9525</v>
       </c>
-      <c r="M7" s="7" t="n">
+      <c r="M7" s="6" t="n">
         <v>20.3528</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="N7" s="6" t="n">
         <v>18.4101</v>
       </c>
-      <c r="O7" s="7" t="n">
+      <c r="O7" s="6" t="n">
         <v>19.5733</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="6" t="n">
         <v>19.4039</v>
       </c>
-      <c r="Q7" s="7" t="n">
+      <c r="Q7" s="6" t="n">
         <v>19.8429</v>
       </c>
-      <c r="R7" s="8" t="n">
+      <c r="R7" s="7" t="n">
         <v>16.0595</v>
       </c>
-      <c r="S7" s="8" t="n">
+      <c r="S7" s="7" t="n">
         <v>21.3762</v>
       </c>
-      <c r="T7" s="8" t="n">
+      <c r="T7" s="7" t="n">
         <v>21.1996</v>
       </c>
       <c r="V7" s="5" t="s">
@@ -7635,58 +7018,58 @@
       <c r="W7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="7" t="n">
+      <c r="X7" s="6" t="n">
         <v>15.3175</v>
       </c>
-      <c r="Y7" s="7" t="n">
+      <c r="Y7" s="6" t="n">
         <v>16.4543</v>
       </c>
-      <c r="Z7" s="7" t="n">
+      <c r="Z7" s="6" t="n">
         <v>13.859</v>
       </c>
-      <c r="AA7" s="7" t="n">
+      <c r="AA7" s="6" t="n">
         <v>13.9581</v>
       </c>
-      <c r="AB7" s="7" t="n">
+      <c r="AB7" s="6" t="n">
         <v>13.1205</v>
       </c>
-      <c r="AC7" s="8" t="n">
+      <c r="AC7" s="7" t="n">
         <v>13.5054</v>
       </c>
-      <c r="AD7" s="8" t="n">
+      <c r="AD7" s="7" t="n">
         <v>13.6087</v>
       </c>
-      <c r="AE7" s="8" t="n">
+      <c r="AE7" s="7" t="n">
         <v>13.1805</v>
       </c>
-      <c r="AF7" s="8" t="n">
+      <c r="AF7" s="7" t="n">
         <v>16.8652</v>
       </c>
-      <c r="AG7" s="8" t="n">
+      <c r="AG7" s="7" t="n">
         <v>12.9525</v>
       </c>
-      <c r="AH7" s="7" t="n">
+      <c r="AH7" s="6" t="n">
         <v>20.3528</v>
       </c>
-      <c r="AI7" s="7" t="n">
+      <c r="AI7" s="6" t="n">
         <v>18.4101</v>
       </c>
-      <c r="AJ7" s="7" t="n">
+      <c r="AJ7" s="6" t="n">
         <v>19.5733</v>
       </c>
-      <c r="AK7" s="7" t="n">
+      <c r="AK7" s="6" t="n">
         <v>19.4039</v>
       </c>
-      <c r="AL7" s="7" t="n">
+      <c r="AL7" s="6" t="n">
         <v>19.8429</v>
       </c>
-      <c r="AM7" s="8" t="n">
+      <c r="AM7" s="7" t="n">
         <v>16.0595</v>
       </c>
-      <c r="AN7" s="8" t="n">
+      <c r="AN7" s="7" t="n">
         <v>21.3762</v>
       </c>
-      <c r="AO7" s="8" t="n">
+      <c r="AO7" s="7" t="n">
         <v>21.1996</v>
       </c>
     </row>
@@ -7694,731 +7077,731 @@
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="6" t="n">
         <v>17.5702</v>
       </c>
-      <c r="D8" s="7" t="n">
+      <c r="D8" s="6" t="n">
         <v>16.4062</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="6" t="n">
         <v>15.5114</v>
       </c>
-      <c r="F8" s="7" t="n">
+      <c r="F8" s="6" t="n">
         <v>15.4131</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="6" t="n">
         <v>15.0039</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="7" t="n">
         <v>14.5935</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="7" t="n">
         <v>18.2039</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="7" t="n">
         <v>19.7737</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="7" t="n">
         <v>17.2284</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="7" t="n">
         <v>20.7251</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="6" t="n">
         <v>24.3948</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="6" t="n">
         <v>23.5979</v>
       </c>
-      <c r="O8" s="7" t="n">
+      <c r="O8" s="6" t="n">
         <v>29.5736</v>
       </c>
-      <c r="P8" s="7" t="n">
+      <c r="P8" s="6" t="n">
         <v>29.5308</v>
       </c>
-      <c r="Q8" s="7" t="n">
+      <c r="Q8" s="6" t="n">
         <v>32.3656</v>
       </c>
-      <c r="R8" s="8" t="n">
+      <c r="R8" s="7" t="n">
         <v>26.0504</v>
       </c>
-      <c r="S8" s="8" t="n">
+      <c r="S8" s="7" t="n">
         <v>25.6434</v>
       </c>
-      <c r="T8" s="8" t="n">
+      <c r="T8" s="7" t="n">
         <v>22.9424</v>
       </c>
       <c r="V8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="6" t="s">
+      <c r="W8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="X8" s="7" t="n">
+      <c r="X8" s="6" t="n">
         <v>17.5702</v>
       </c>
-      <c r="Y8" s="7" t="n">
+      <c r="Y8" s="6" t="n">
         <v>16.4062</v>
       </c>
-      <c r="Z8" s="7" t="n">
+      <c r="Z8" s="6" t="n">
         <v>15.5114</v>
       </c>
-      <c r="AA8" s="7" t="n">
+      <c r="AA8" s="6" t="n">
         <v>15.4131</v>
       </c>
-      <c r="AB8" s="7" t="n">
+      <c r="AB8" s="6" t="n">
         <v>15.0039</v>
       </c>
-      <c r="AC8" s="8" t="n">
+      <c r="AC8" s="7" t="n">
         <v>14.5935</v>
       </c>
-      <c r="AD8" s="8" t="n">
+      <c r="AD8" s="7" t="n">
         <v>18.2039</v>
       </c>
-      <c r="AE8" s="8" t="n">
+      <c r="AE8" s="7" t="n">
         <v>19.7737</v>
       </c>
-      <c r="AF8" s="8" t="n">
+      <c r="AF8" s="7" t="n">
         <v>17.2284</v>
       </c>
-      <c r="AG8" s="8" t="n">
+      <c r="AG8" s="7" t="n">
         <v>20.7251</v>
       </c>
-      <c r="AH8" s="7" t="n">
+      <c r="AH8" s="6" t="n">
         <v>24.3948</v>
       </c>
-      <c r="AI8" s="7" t="n">
+      <c r="AI8" s="6" t="n">
         <v>23.5979</v>
       </c>
-      <c r="AJ8" s="7" t="n">
+      <c r="AJ8" s="6" t="n">
         <v>29.5736</v>
       </c>
-      <c r="AK8" s="7" t="n">
+      <c r="AK8" s="6" t="n">
         <v>29.5308</v>
       </c>
-      <c r="AL8" s="7" t="n">
+      <c r="AL8" s="6" t="n">
         <v>32.3656</v>
       </c>
-      <c r="AM8" s="8" t="n">
+      <c r="AM8" s="7" t="n">
         <v>26.0504</v>
       </c>
-      <c r="AN8" s="8" t="n">
+      <c r="AN8" s="7" t="n">
         <v>25.6434</v>
       </c>
-      <c r="AO8" s="8" t="n">
+      <c r="AO8" s="7" t="n">
         <v>22.9424</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="7" t="n">
         <v>15.9284</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="7" t="n">
         <v>15.7411</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="7" t="n">
         <v>16.0683</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="7" t="n">
         <v>18.0714</v>
       </c>
-      <c r="G9" s="8" t="n">
+      <c r="G9" s="7" t="n">
         <v>16.4487</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>16.7916</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="6" t="n">
         <v>17.0251</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="6" t="n">
         <v>16.6448</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="6" t="n">
         <v>14.4034</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="6" t="n">
         <v>15.1536</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="7" t="n">
         <v>13.4758</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="7" t="n">
         <v>16.1272</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="7" t="n">
         <v>15.8912</v>
       </c>
-      <c r="P9" s="8" t="n">
+      <c r="P9" s="7" t="n">
         <v>12.7031</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="7" t="n">
         <v>15.5073</v>
       </c>
-      <c r="R9" s="7" t="n">
+      <c r="R9" s="6" t="n">
         <v>18.8081</v>
       </c>
-      <c r="S9" s="7" t="n">
+      <c r="S9" s="6" t="n">
         <v>11.4765</v>
       </c>
-      <c r="T9" s="7" t="n">
+      <c r="T9" s="6" t="n">
         <v>27.6479</v>
       </c>
-      <c r="V9" s="9" t="s">
+      <c r="V9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="10" t="s">
+      <c r="W9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="8" t="n">
+      <c r="X9" s="7" t="n">
         <v>15.9284</v>
       </c>
-      <c r="Y9" s="8" t="n">
+      <c r="Y9" s="7" t="n">
         <v>15.7411</v>
       </c>
-      <c r="Z9" s="8" t="n">
+      <c r="Z9" s="7" t="n">
         <v>16.0683</v>
       </c>
-      <c r="AA9" s="8" t="n">
+      <c r="AA9" s="7" t="n">
         <v>18.0714</v>
       </c>
-      <c r="AB9" s="8" t="n">
+      <c r="AB9" s="7" t="n">
         <v>16.4487</v>
       </c>
-      <c r="AC9" s="7" t="n">
+      <c r="AC9" s="6" t="n">
         <v>16.7916</v>
       </c>
-      <c r="AD9" s="7" t="n">
+      <c r="AD9" s="6" t="n">
         <v>17.0251</v>
       </c>
-      <c r="AE9" s="7" t="n">
+      <c r="AE9" s="6" t="n">
         <v>16.6448</v>
       </c>
-      <c r="AF9" s="7" t="n">
+      <c r="AF9" s="6" t="n">
         <v>14.4034</v>
       </c>
-      <c r="AG9" s="7" t="n">
+      <c r="AG9" s="6" t="n">
         <v>15.1536</v>
       </c>
-      <c r="AH9" s="8" t="n">
+      <c r="AH9" s="7" t="n">
         <v>13.4758</v>
       </c>
-      <c r="AI9" s="8" t="n">
+      <c r="AI9" s="7" t="n">
         <v>16.1272</v>
       </c>
-      <c r="AJ9" s="8" t="n">
+      <c r="AJ9" s="7" t="n">
         <v>15.8912</v>
       </c>
-      <c r="AK9" s="8" t="n">
+      <c r="AK9" s="7" t="n">
         <v>12.7031</v>
       </c>
-      <c r="AL9" s="8" t="n">
+      <c r="AL9" s="7" t="n">
         <v>15.5073</v>
       </c>
-      <c r="AM9" s="7" t="n">
+      <c r="AM9" s="6" t="n">
         <v>18.8081</v>
       </c>
-      <c r="AN9" s="7" t="n">
+      <c r="AN9" s="6" t="n">
         <v>11.4765</v>
       </c>
-      <c r="AO9" s="7" t="n">
+      <c r="AO9" s="6" t="n">
         <v>27.6479</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="7" t="n">
         <v>16.6123</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="7" t="n">
         <v>17.3425</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="7" t="n">
         <v>19.1086</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="7" t="n">
         <v>21.733</v>
       </c>
-      <c r="G10" s="8" t="n">
+      <c r="G10" s="7" t="n">
         <v>20.7724</v>
       </c>
-      <c r="H10" s="7" t="n">
+      <c r="H10" s="6" t="n">
         <v>20.2879</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="6" t="n">
         <v>19.4782</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="6" t="n">
         <v>19.294</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="6" t="n">
         <v>19.1675</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="6" t="n">
         <v>20.3098</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="7" t="n">
         <v>17.9128</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="7" t="n">
         <v>15.9086</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="7" t="n">
         <v>18.4055</v>
       </c>
-      <c r="P10" s="8" t="n">
+      <c r="P10" s="7" t="n">
         <v>17.6627</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="7" t="n">
         <v>19.2747</v>
       </c>
-      <c r="R10" s="7" t="n">
+      <c r="R10" s="6" t="n">
         <v>23.6872</v>
       </c>
-      <c r="S10" s="7" t="n">
+      <c r="S10" s="6" t="n">
         <v>23.0451</v>
       </c>
-      <c r="T10" s="7" t="n">
+      <c r="T10" s="6" t="n">
         <v>42.5975</v>
       </c>
-      <c r="V10" s="9" t="s">
+      <c r="V10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="10" t="s">
+      <c r="W10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="8" t="n">
+      <c r="X10" s="7" t="n">
         <v>16.6123</v>
       </c>
-      <c r="Y10" s="8" t="n">
+      <c r="Y10" s="7" t="n">
         <v>17.3425</v>
       </c>
-      <c r="Z10" s="8" t="n">
+      <c r="Z10" s="7" t="n">
         <v>19.1086</v>
       </c>
-      <c r="AA10" s="8" t="n">
+      <c r="AA10" s="7" t="n">
         <v>21.733</v>
       </c>
-      <c r="AB10" s="8" t="n">
+      <c r="AB10" s="7" t="n">
         <v>20.7724</v>
       </c>
-      <c r="AC10" s="7" t="n">
+      <c r="AC10" s="6" t="n">
         <v>20.2879</v>
       </c>
-      <c r="AD10" s="7" t="n">
+      <c r="AD10" s="6" t="n">
         <v>19.4782</v>
       </c>
-      <c r="AE10" s="7" t="n">
+      <c r="AE10" s="6" t="n">
         <v>19.294</v>
       </c>
-      <c r="AF10" s="7" t="n">
+      <c r="AF10" s="6" t="n">
         <v>19.1675</v>
       </c>
-      <c r="AG10" s="7" t="n">
+      <c r="AG10" s="6" t="n">
         <v>20.3098</v>
       </c>
-      <c r="AH10" s="8" t="n">
+      <c r="AH10" s="7" t="n">
         <v>17.9128</v>
       </c>
-      <c r="AI10" s="8" t="n">
+      <c r="AI10" s="7" t="n">
         <v>15.9086</v>
       </c>
-      <c r="AJ10" s="8" t="n">
+      <c r="AJ10" s="7" t="n">
         <v>18.4055</v>
       </c>
-      <c r="AK10" s="8" t="n">
+      <c r="AK10" s="7" t="n">
         <v>17.6627</v>
       </c>
-      <c r="AL10" s="8" t="n">
+      <c r="AL10" s="7" t="n">
         <v>19.2747</v>
       </c>
-      <c r="AM10" s="7" t="n">
+      <c r="AM10" s="6" t="n">
         <v>23.6872</v>
       </c>
-      <c r="AN10" s="7" t="n">
+      <c r="AN10" s="6" t="n">
         <v>23.0451</v>
       </c>
-      <c r="AO10" s="7" t="n">
+      <c r="AO10" s="6" t="n">
         <v>42.5975</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="7" t="n">
         <v>15.9308</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="7" t="n">
         <v>16.9405</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="7" t="n">
         <v>19.7317</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="7" t="n">
         <v>20.2024</v>
       </c>
-      <c r="G11" s="8" t="n">
+      <c r="G11" s="7" t="n">
         <v>21.1498</v>
       </c>
-      <c r="H11" s="7" t="n">
+      <c r="H11" s="6" t="n">
         <v>18.5775</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="6" t="n">
         <v>18.6404</v>
       </c>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="6" t="n">
         <v>21.0166</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="6" t="n">
         <v>15.9336</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="6" t="n">
         <v>15.8522</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="7" t="n">
         <v>17.0284</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="7" t="n">
         <v>16.1011</v>
       </c>
-      <c r="O11" s="8" t="n">
+      <c r="O11" s="7" t="n">
         <v>18.1417</v>
       </c>
-      <c r="P11" s="8" t="n">
+      <c r="P11" s="7" t="n">
         <v>18.057</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="7" t="n">
         <v>19.5322</v>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="R11" s="6" t="n">
         <v>23.9338</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="6" t="n">
         <v>19.0926</v>
       </c>
-      <c r="T11" s="7" t="n">
+      <c r="T11" s="6" t="n">
         <v>54.0411</v>
       </c>
-      <c r="V11" s="9" t="s">
+      <c r="V11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="10" t="s">
+      <c r="W11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="8" t="n">
+      <c r="X11" s="7" t="n">
         <v>15.9308</v>
       </c>
-      <c r="Y11" s="8" t="n">
+      <c r="Y11" s="7" t="n">
         <v>16.9405</v>
       </c>
-      <c r="Z11" s="8" t="n">
+      <c r="Z11" s="7" t="n">
         <v>19.7317</v>
       </c>
-      <c r="AA11" s="8" t="n">
+      <c r="AA11" s="7" t="n">
         <v>20.2024</v>
       </c>
-      <c r="AB11" s="8" t="n">
+      <c r="AB11" s="7" t="n">
         <v>21.1498</v>
       </c>
-      <c r="AC11" s="7" t="n">
+      <c r="AC11" s="6" t="n">
         <v>18.5775</v>
       </c>
-      <c r="AD11" s="7" t="n">
+      <c r="AD11" s="6" t="n">
         <v>18.6404</v>
       </c>
-      <c r="AE11" s="7" t="n">
+      <c r="AE11" s="6" t="n">
         <v>21.0166</v>
       </c>
-      <c r="AF11" s="7" t="n">
+      <c r="AF11" s="6" t="n">
         <v>15.9336</v>
       </c>
-      <c r="AG11" s="7" t="n">
+      <c r="AG11" s="6" t="n">
         <v>15.8522</v>
       </c>
-      <c r="AH11" s="8" t="n">
+      <c r="AH11" s="7" t="n">
         <v>17.0284</v>
       </c>
-      <c r="AI11" s="8" t="n">
+      <c r="AI11" s="7" t="n">
         <v>16.1011</v>
       </c>
-      <c r="AJ11" s="8" t="n">
+      <c r="AJ11" s="7" t="n">
         <v>18.1417</v>
       </c>
-      <c r="AK11" s="8" t="n">
+      <c r="AK11" s="7" t="n">
         <v>18.057</v>
       </c>
-      <c r="AL11" s="8" t="n">
+      <c r="AL11" s="7" t="n">
         <v>19.5322</v>
       </c>
-      <c r="AM11" s="7" t="n">
+      <c r="AM11" s="6" t="n">
         <v>23.9338</v>
       </c>
-      <c r="AN11" s="7" t="n">
+      <c r="AN11" s="6" t="n">
         <v>19.0926</v>
       </c>
-      <c r="AO11" s="7" t="n">
+      <c r="AO11" s="6" t="n">
         <v>54.0411</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="7" t="n">
         <v>16.9262</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="7" t="n">
         <v>15.0222</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="7" t="n">
         <v>16.5496</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="7" t="n">
         <v>16.4876</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="7" t="n">
         <v>17.9009</v>
       </c>
-      <c r="H12" s="7" t="n">
+      <c r="H12" s="6" t="n">
         <v>16.2153</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="6" t="n">
         <v>17.295</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="6" t="n">
         <v>19.0401</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="6" t="n">
         <v>14.3505</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="6" t="n">
         <v>14.3505</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="7" t="n">
         <v>14.5505</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="7" t="n">
         <v>13.4355</v>
       </c>
-      <c r="O12" s="8" t="n">
+      <c r="O12" s="7" t="n">
         <v>17.5022</v>
       </c>
-      <c r="P12" s="8" t="n">
+      <c r="P12" s="7" t="n">
         <v>16.1534</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="7" t="n">
         <v>14.4832</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="R12" s="6" t="n">
         <v>19.4531</v>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="S12" s="6" t="n">
         <v>19.8641</v>
       </c>
-      <c r="T12" s="7" t="n">
+      <c r="T12" s="6" t="n">
         <v>12.4334</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W12" s="10" t="s">
+      <c r="W12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X12" s="8" t="n">
+      <c r="X12" s="7" t="n">
         <v>16.9262</v>
       </c>
-      <c r="Y12" s="8" t="n">
+      <c r="Y12" s="7" t="n">
         <v>15.0222</v>
       </c>
-      <c r="Z12" s="8" t="n">
+      <c r="Z12" s="7" t="n">
         <v>16.5496</v>
       </c>
-      <c r="AA12" s="8" t="n">
+      <c r="AA12" s="7" t="n">
         <v>16.4876</v>
       </c>
-      <c r="AB12" s="8" t="n">
+      <c r="AB12" s="7" t="n">
         <v>17.9009</v>
       </c>
-      <c r="AC12" s="7" t="n">
+      <c r="AC12" s="6" t="n">
         <v>16.2153</v>
       </c>
-      <c r="AD12" s="7" t="n">
+      <c r="AD12" s="6" t="n">
         <v>17.295</v>
       </c>
-      <c r="AE12" s="7" t="n">
+      <c r="AE12" s="6" t="n">
         <v>19.0401</v>
       </c>
-      <c r="AF12" s="7" t="n">
+      <c r="AF12" s="6" t="n">
         <v>14.3505</v>
       </c>
-      <c r="AG12" s="7" t="n">
+      <c r="AG12" s="6" t="n">
         <v>14.3505</v>
       </c>
-      <c r="AH12" s="8" t="n">
+      <c r="AH12" s="7" t="n">
         <v>14.5505</v>
       </c>
-      <c r="AI12" s="8" t="n">
+      <c r="AI12" s="7" t="n">
         <v>13.4355</v>
       </c>
-      <c r="AJ12" s="8" t="n">
+      <c r="AJ12" s="7" t="n">
         <v>17.5022</v>
       </c>
-      <c r="AK12" s="8" t="n">
+      <c r="AK12" s="7" t="n">
         <v>16.1534</v>
       </c>
-      <c r="AL12" s="8" t="n">
+      <c r="AL12" s="7" t="n">
         <v>14.4832</v>
       </c>
-      <c r="AM12" s="7" t="n">
+      <c r="AM12" s="6" t="n">
         <v>19.4531</v>
       </c>
-      <c r="AN12" s="7" t="n">
+      <c r="AN12" s="6" t="n">
         <v>19.8641</v>
       </c>
-      <c r="AO12" s="7" t="n">
+      <c r="AO12" s="6" t="n">
         <v>12.4334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="7" t="n">
         <v>16.449</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="7" t="n">
         <v>15.6906</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="7" t="n">
         <v>16.8314</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="7" t="n">
         <v>18.999</v>
       </c>
-      <c r="G13" s="8" t="n">
+      <c r="G13" s="7" t="n">
         <v>20.3871</v>
       </c>
-      <c r="H13" s="7" t="n">
+      <c r="H13" s="6" t="n">
         <v>17.9224</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="6" t="n">
         <v>18.5302</v>
       </c>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="6" t="n">
         <v>21.7119</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="6" t="n">
         <v>25.3027</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="6" t="n">
         <v>17.8904</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="7" t="n">
         <v>18.6198</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="7" t="n">
         <v>16.9325</v>
       </c>
-      <c r="O13" s="8" t="n">
+      <c r="O13" s="7" t="n">
         <v>20.487</v>
       </c>
-      <c r="P13" s="8" t="n">
+      <c r="P13" s="7" t="n">
         <v>19.1555</v>
       </c>
-      <c r="Q13" s="8" t="n">
+      <c r="Q13" s="7" t="n">
         <v>18.0316</v>
       </c>
-      <c r="R13" s="7" t="n">
+      <c r="R13" s="6" t="n">
         <v>22.752</v>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="S13" s="6" t="n">
         <v>18.0421</v>
       </c>
-      <c r="T13" s="7" t="n">
+      <c r="T13" s="6" t="n">
         <v>36.9921</v>
       </c>
-      <c r="V13" s="9" t="s">
+      <c r="V13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="W13" s="10" t="s">
+      <c r="W13" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X13" s="8" t="n">
+      <c r="X13" s="7" t="n">
         <v>16.449</v>
       </c>
-      <c r="Y13" s="8" t="n">
+      <c r="Y13" s="7" t="n">
         <v>15.6906</v>
       </c>
-      <c r="Z13" s="8" t="n">
+      <c r="Z13" s="7" t="n">
         <v>16.8314</v>
       </c>
-      <c r="AA13" s="8" t="n">
+      <c r="AA13" s="7" t="n">
         <v>18.999</v>
       </c>
-      <c r="AB13" s="8" t="n">
+      <c r="AB13" s="7" t="n">
         <v>20.3871</v>
       </c>
-      <c r="AC13" s="7" t="n">
+      <c r="AC13" s="6" t="n">
         <v>17.9224</v>
       </c>
-      <c r="AD13" s="7" t="n">
+      <c r="AD13" s="6" t="n">
         <v>18.5302</v>
       </c>
-      <c r="AE13" s="7" t="n">
+      <c r="AE13" s="6" t="n">
         <v>21.7119</v>
       </c>
-      <c r="AF13" s="7" t="n">
+      <c r="AF13" s="6" t="n">
         <v>25.3027</v>
       </c>
-      <c r="AG13" s="7" t="n">
+      <c r="AG13" s="6" t="n">
         <v>17.8904</v>
       </c>
-      <c r="AH13" s="8" t="n">
+      <c r="AH13" s="7" t="n">
         <v>18.6198</v>
       </c>
-      <c r="AI13" s="8" t="n">
+      <c r="AI13" s="7" t="n">
         <v>16.9325</v>
       </c>
-      <c r="AJ13" s="8" t="n">
+      <c r="AJ13" s="7" t="n">
         <v>20.487</v>
       </c>
-      <c r="AK13" s="8" t="n">
+      <c r="AK13" s="7" t="n">
         <v>19.1555</v>
       </c>
-      <c r="AL13" s="8" t="n">
+      <c r="AL13" s="7" t="n">
         <v>18.0316</v>
       </c>
-      <c r="AM13" s="7" t="n">
+      <c r="AM13" s="6" t="n">
         <v>22.752</v>
       </c>
-      <c r="AN13" s="7" t="n">
+      <c r="AN13" s="6" t="n">
         <v>18.0421</v>
       </c>
-      <c r="AO13" s="7" t="n">
+      <c r="AO13" s="6" t="n">
         <v>36.9921</v>
       </c>
     </row>
@@ -8426,121 +7809,121 @@
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="6" t="n">
         <v>14.8225</v>
       </c>
-      <c r="D14" s="7" t="n">
+      <c r="D14" s="6" t="n">
         <v>14.9574</v>
       </c>
-      <c r="E14" s="7" t="n">
+      <c r="E14" s="6" t="n">
         <v>14.3446</v>
       </c>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="6" t="n">
         <v>12.3448</v>
       </c>
-      <c r="G14" s="7" t="n">
+      <c r="G14" s="6" t="n">
         <v>11.8131</v>
       </c>
-      <c r="H14" s="8" t="n">
+      <c r="H14" s="7" t="n">
         <v>12.5273</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="7" t="n">
         <v>12.8223</v>
       </c>
-      <c r="J14" s="8" t="n">
+      <c r="J14" s="7" t="n">
         <v>13.391</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="7" t="n">
         <v>10.6601</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="7" t="n">
         <v>11.8564</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="6" t="n">
         <v>14.2465</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="6" t="n">
         <v>16.5269</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="6" t="n">
         <v>14.1319</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="P14" s="6" t="n">
         <v>15.409</v>
       </c>
-      <c r="Q14" s="7" t="n">
+      <c r="Q14" s="6" t="n">
         <v>15.6313</v>
       </c>
-      <c r="R14" s="8" t="n">
+      <c r="R14" s="7" t="n">
         <v>14.7819</v>
       </c>
-      <c r="S14" s="8" t="n">
+      <c r="S14" s="7" t="n">
         <v>14.4475</v>
       </c>
-      <c r="T14" s="8" t="n">
+      <c r="T14" s="7" t="n">
         <v>15.0281</v>
       </c>
       <c r="V14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="6" t="s">
+      <c r="W14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X14" s="7" t="n">
+      <c r="X14" s="6" t="n">
         <v>14.8225</v>
       </c>
-      <c r="Y14" s="7" t="n">
+      <c r="Y14" s="6" t="n">
         <v>14.9574</v>
       </c>
-      <c r="Z14" s="7" t="n">
+      <c r="Z14" s="6" t="n">
         <v>14.3446</v>
       </c>
-      <c r="AA14" s="7" t="n">
+      <c r="AA14" s="6" t="n">
         <v>12.3448</v>
       </c>
-      <c r="AB14" s="7" t="n">
+      <c r="AB14" s="6" t="n">
         <v>11.8131</v>
       </c>
-      <c r="AC14" s="8" t="n">
+      <c r="AC14" s="7" t="n">
         <v>12.5273</v>
       </c>
-      <c r="AD14" s="8" t="n">
+      <c r="AD14" s="7" t="n">
         <v>12.8223</v>
       </c>
-      <c r="AE14" s="8" t="n">
+      <c r="AE14" s="7" t="n">
         <v>13.391</v>
       </c>
-      <c r="AF14" s="8" t="n">
+      <c r="AF14" s="7" t="n">
         <v>10.6601</v>
       </c>
-      <c r="AG14" s="8" t="n">
+      <c r="AG14" s="7" t="n">
         <v>11.8564</v>
       </c>
-      <c r="AH14" s="7" t="n">
+      <c r="AH14" s="6" t="n">
         <v>14.2465</v>
       </c>
-      <c r="AI14" s="7" t="n">
+      <c r="AI14" s="6" t="n">
         <v>16.5269</v>
       </c>
-      <c r="AJ14" s="7" t="n">
+      <c r="AJ14" s="6" t="n">
         <v>14.1319</v>
       </c>
-      <c r="AK14" s="7" t="n">
+      <c r="AK14" s="6" t="n">
         <v>15.409</v>
       </c>
-      <c r="AL14" s="7" t="n">
+      <c r="AL14" s="6" t="n">
         <v>15.6313</v>
       </c>
-      <c r="AM14" s="8" t="n">
+      <c r="AM14" s="7" t="n">
         <v>14.7819</v>
       </c>
-      <c r="AN14" s="8" t="n">
+      <c r="AN14" s="7" t="n">
         <v>14.4475</v>
       </c>
-      <c r="AO14" s="8" t="n">
+      <c r="AO14" s="7" t="n">
         <v>15.0281</v>
       </c>
     </row>
@@ -8548,121 +7931,121 @@
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="6" t="n">
         <v>18.6494</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="6" t="n">
         <v>19.2013</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="6" t="n">
         <v>17.7803</v>
       </c>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="6" t="n">
         <v>15.9307</v>
       </c>
-      <c r="G15" s="7" t="n">
+      <c r="G15" s="6" t="n">
         <v>15.7058</v>
       </c>
-      <c r="H15" s="8" t="n">
+      <c r="H15" s="7" t="n">
         <v>15.9148</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="7" t="n">
         <v>15.486</v>
       </c>
-      <c r="J15" s="8" t="n">
+      <c r="J15" s="7" t="n">
         <v>15.9047</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="7" t="n">
         <v>15.3566</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="7" t="n">
         <v>15.4808</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="M15" s="6" t="n">
         <v>15.8296</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="N15" s="6" t="n">
         <v>18.297</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="6" t="n">
         <v>18.5382</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="6" t="n">
         <v>19.292</v>
       </c>
-      <c r="Q15" s="7" t="n">
+      <c r="Q15" s="6" t="n">
         <v>18.9354</v>
       </c>
-      <c r="R15" s="8" t="n">
+      <c r="R15" s="7" t="n">
         <v>17.5911</v>
       </c>
-      <c r="S15" s="8" t="n">
+      <c r="S15" s="7" t="n">
         <v>17.7006</v>
       </c>
-      <c r="T15" s="8" t="n">
+      <c r="T15" s="7" t="n">
         <v>19.7003</v>
       </c>
       <c r="V15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W15" s="6" t="s">
+      <c r="W15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X15" s="7" t="n">
+      <c r="X15" s="6" t="n">
         <v>18.6494</v>
       </c>
-      <c r="Y15" s="7" t="n">
+      <c r="Y15" s="6" t="n">
         <v>19.2013</v>
       </c>
-      <c r="Z15" s="7" t="n">
+      <c r="Z15" s="6" t="n">
         <v>17.7803</v>
       </c>
-      <c r="AA15" s="7" t="n">
+      <c r="AA15" s="6" t="n">
         <v>15.9307</v>
       </c>
-      <c r="AB15" s="7" t="n">
+      <c r="AB15" s="6" t="n">
         <v>15.7058</v>
       </c>
-      <c r="AC15" s="8" t="n">
+      <c r="AC15" s="7" t="n">
         <v>15.9148</v>
       </c>
-      <c r="AD15" s="8" t="n">
+      <c r="AD15" s="7" t="n">
         <v>15.486</v>
       </c>
-      <c r="AE15" s="8" t="n">
+      <c r="AE15" s="7" t="n">
         <v>15.9047</v>
       </c>
-      <c r="AF15" s="8" t="n">
+      <c r="AF15" s="7" t="n">
         <v>15.3566</v>
       </c>
-      <c r="AG15" s="8" t="n">
+      <c r="AG15" s="7" t="n">
         <v>15.4808</v>
       </c>
-      <c r="AH15" s="7" t="n">
+      <c r="AH15" s="6" t="n">
         <v>15.8296</v>
       </c>
-      <c r="AI15" s="7" t="n">
+      <c r="AI15" s="6" t="n">
         <v>18.297</v>
       </c>
-      <c r="AJ15" s="7" t="n">
+      <c r="AJ15" s="6" t="n">
         <v>18.5382</v>
       </c>
-      <c r="AK15" s="7" t="n">
+      <c r="AK15" s="6" t="n">
         <v>19.292</v>
       </c>
-      <c r="AL15" s="7" t="n">
+      <c r="AL15" s="6" t="n">
         <v>18.9354</v>
       </c>
-      <c r="AM15" s="8" t="n">
+      <c r="AM15" s="7" t="n">
         <v>17.5911</v>
       </c>
-      <c r="AN15" s="8" t="n">
+      <c r="AN15" s="7" t="n">
         <v>17.7006</v>
       </c>
-      <c r="AO15" s="8" t="n">
+      <c r="AO15" s="7" t="n">
         <v>19.7003</v>
       </c>
     </row>
@@ -8670,121 +8053,121 @@
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="6" t="n">
         <v>17.1661</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="6" t="n">
         <v>17.2604</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="6" t="n">
         <v>14.091</v>
       </c>
-      <c r="F16" s="7" t="n">
+      <c r="F16" s="6" t="n">
         <v>15.2879</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="6" t="n">
         <v>15.1642</v>
       </c>
-      <c r="H16" s="8" t="n">
+      <c r="H16" s="7" t="n">
         <v>15.3037</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="7" t="n">
         <v>15.2057</v>
       </c>
-      <c r="J16" s="8" t="n">
+      <c r="J16" s="7" t="n">
         <v>14.6728</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="7" t="n">
         <v>15.353</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="7" t="n">
         <v>16.7401</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="M16" s="6" t="n">
         <v>17.5029</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="N16" s="6" t="n">
         <v>18.6692</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="6" t="n">
         <v>17.5289</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="6" t="n">
         <v>19.4146</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="Q16" s="6" t="n">
         <v>19.1185</v>
       </c>
-      <c r="R16" s="8" t="n">
+      <c r="R16" s="7" t="n">
         <v>18.0888</v>
       </c>
-      <c r="S16" s="8" t="n">
+      <c r="S16" s="7" t="n">
         <v>17.2877</v>
       </c>
-      <c r="T16" s="8" t="n">
+      <c r="T16" s="7" t="n">
         <v>21.3747</v>
       </c>
       <c r="V16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W16" s="6" t="s">
+      <c r="W16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X16" s="7" t="n">
+      <c r="X16" s="6" t="n">
         <v>17.1661</v>
       </c>
-      <c r="Y16" s="7" t="n">
+      <c r="Y16" s="6" t="n">
         <v>17.2604</v>
       </c>
-      <c r="Z16" s="7" t="n">
+      <c r="Z16" s="6" t="n">
         <v>14.091</v>
       </c>
-      <c r="AA16" s="7" t="n">
+      <c r="AA16" s="6" t="n">
         <v>15.2879</v>
       </c>
-      <c r="AB16" s="7" t="n">
+      <c r="AB16" s="6" t="n">
         <v>15.1642</v>
       </c>
-      <c r="AC16" s="8" t="n">
+      <c r="AC16" s="7" t="n">
         <v>15.3037</v>
       </c>
-      <c r="AD16" s="8" t="n">
+      <c r="AD16" s="7" t="n">
         <v>15.2057</v>
       </c>
-      <c r="AE16" s="8" t="n">
+      <c r="AE16" s="7" t="n">
         <v>14.6728</v>
       </c>
-      <c r="AF16" s="8" t="n">
+      <c r="AF16" s="7" t="n">
         <v>15.353</v>
       </c>
-      <c r="AG16" s="8" t="n">
+      <c r="AG16" s="7" t="n">
         <v>16.7401</v>
       </c>
-      <c r="AH16" s="7" t="n">
+      <c r="AH16" s="6" t="n">
         <v>17.5029</v>
       </c>
-      <c r="AI16" s="7" t="n">
+      <c r="AI16" s="6" t="n">
         <v>18.6692</v>
       </c>
-      <c r="AJ16" s="7" t="n">
+      <c r="AJ16" s="6" t="n">
         <v>17.5289</v>
       </c>
-      <c r="AK16" s="7" t="n">
+      <c r="AK16" s="6" t="n">
         <v>19.4146</v>
       </c>
-      <c r="AL16" s="7" t="n">
+      <c r="AL16" s="6" t="n">
         <v>19.1185</v>
       </c>
-      <c r="AM16" s="8" t="n">
+      <c r="AM16" s="7" t="n">
         <v>18.0888</v>
       </c>
-      <c r="AN16" s="8" t="n">
+      <c r="AN16" s="7" t="n">
         <v>17.2877</v>
       </c>
-      <c r="AO16" s="8" t="n">
+      <c r="AO16" s="7" t="n">
         <v>21.3747</v>
       </c>
     </row>
@@ -8792,121 +8175,121 @@
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7" t="n">
+      <c r="C17" s="6" t="n">
         <v>14.4498</v>
       </c>
-      <c r="D17" s="7" t="n">
+      <c r="D17" s="6" t="n">
         <v>15.9342</v>
       </c>
-      <c r="E17" s="7" t="n">
+      <c r="E17" s="6" t="n">
         <v>13.947</v>
       </c>
-      <c r="F17" s="7" t="n">
+      <c r="F17" s="6" t="n">
         <v>12.8386</v>
       </c>
-      <c r="G17" s="7" t="n">
+      <c r="G17" s="6" t="n">
         <v>13.5372</v>
       </c>
-      <c r="H17" s="8" t="n">
+      <c r="H17" s="7" t="n">
         <v>12.5129</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="7" t="n">
         <v>13.1809</v>
       </c>
-      <c r="J17" s="8" t="n">
+      <c r="J17" s="7" t="n">
         <v>13.0822</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="7" t="n">
         <v>10.6895</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="7" t="n">
         <v>11.9707</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="M17" s="6" t="n">
         <v>13.5016</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="6" t="n">
         <v>15.6025</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="6" t="n">
         <v>13.9991</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="P17" s="6" t="n">
         <v>14.4415</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="Q17" s="6" t="n">
         <v>15.5428</v>
       </c>
-      <c r="R17" s="8" t="n">
+      <c r="R17" s="7" t="n">
         <v>14.7026</v>
       </c>
-      <c r="S17" s="8" t="n">
+      <c r="S17" s="7" t="n">
         <v>16.4062</v>
       </c>
-      <c r="T17" s="8" t="n">
+      <c r="T17" s="7" t="n">
         <v>16.2417</v>
       </c>
       <c r="V17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W17" s="6" t="s">
+      <c r="W17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="7" t="n">
+      <c r="X17" s="6" t="n">
         <v>14.4498</v>
       </c>
-      <c r="Y17" s="7" t="n">
+      <c r="Y17" s="6" t="n">
         <v>15.9342</v>
       </c>
-      <c r="Z17" s="7" t="n">
+      <c r="Z17" s="6" t="n">
         <v>13.947</v>
       </c>
-      <c r="AA17" s="7" t="n">
+      <c r="AA17" s="6" t="n">
         <v>12.8386</v>
       </c>
-      <c r="AB17" s="7" t="n">
+      <c r="AB17" s="6" t="n">
         <v>13.5372</v>
       </c>
-      <c r="AC17" s="8" t="n">
+      <c r="AC17" s="7" t="n">
         <v>12.5129</v>
       </c>
-      <c r="AD17" s="8" t="n">
+      <c r="AD17" s="7" t="n">
         <v>13.1809</v>
       </c>
-      <c r="AE17" s="8" t="n">
+      <c r="AE17" s="7" t="n">
         <v>13.0822</v>
       </c>
-      <c r="AF17" s="8" t="n">
+      <c r="AF17" s="7" t="n">
         <v>10.6895</v>
       </c>
-      <c r="AG17" s="8" t="n">
+      <c r="AG17" s="7" t="n">
         <v>11.9707</v>
       </c>
-      <c r="AH17" s="7" t="n">
+      <c r="AH17" s="6" t="n">
         <v>13.5016</v>
       </c>
-      <c r="AI17" s="7" t="n">
+      <c r="AI17" s="6" t="n">
         <v>15.6025</v>
       </c>
-      <c r="AJ17" s="7" t="n">
+      <c r="AJ17" s="6" t="n">
         <v>13.9991</v>
       </c>
-      <c r="AK17" s="7" t="n">
+      <c r="AK17" s="6" t="n">
         <v>14.4415</v>
       </c>
-      <c r="AL17" s="7" t="n">
+      <c r="AL17" s="6" t="n">
         <v>15.5428</v>
       </c>
-      <c r="AM17" s="8" t="n">
+      <c r="AM17" s="7" t="n">
         <v>14.7026</v>
       </c>
-      <c r="AN17" s="8" t="n">
+      <c r="AN17" s="7" t="n">
         <v>16.4062</v>
       </c>
-      <c r="AO17" s="8" t="n">
+      <c r="AO17" s="7" t="n">
         <v>16.2417</v>
       </c>
     </row>
@@ -8914,609 +8297,609 @@
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="6" t="n">
         <v>17.7909</v>
       </c>
-      <c r="D18" s="7" t="n">
+      <c r="D18" s="6" t="n">
         <v>19.1904</v>
       </c>
-      <c r="E18" s="7" t="n">
+      <c r="E18" s="6" t="n">
         <v>18.4979</v>
       </c>
-      <c r="F18" s="7" t="n">
+      <c r="F18" s="6" t="n">
         <v>16.1053</v>
       </c>
-      <c r="G18" s="7" t="n">
+      <c r="G18" s="6" t="n">
         <v>15.8826</v>
       </c>
-      <c r="H18" s="8" t="n">
+      <c r="H18" s="7" t="n">
         <v>15.2254</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="7" t="n">
         <v>16.0943</v>
       </c>
-      <c r="J18" s="8" t="n">
+      <c r="J18" s="7" t="n">
         <v>16.5447</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="7" t="n">
         <v>16.2747</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="7" t="n">
         <v>16.2124</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="6" t="n">
         <v>20.3108</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="6" t="n">
         <v>19.3152</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="6" t="n">
         <v>21.7294</v>
       </c>
-      <c r="P18" s="7" t="n">
+      <c r="P18" s="6" t="n">
         <v>21.4648</v>
       </c>
-      <c r="Q18" s="7" t="n">
+      <c r="Q18" s="6" t="n">
         <v>19.6294</v>
       </c>
-      <c r="R18" s="8" t="n">
+      <c r="R18" s="7" t="n">
         <v>18.8237</v>
       </c>
-      <c r="S18" s="8" t="n">
+      <c r="S18" s="7" t="n">
         <v>17.9506</v>
       </c>
-      <c r="T18" s="8" t="n">
+      <c r="T18" s="7" t="n">
         <v>19.8462</v>
       </c>
       <c r="V18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="W18" s="6" t="s">
+      <c r="W18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X18" s="7" t="n">
+      <c r="X18" s="6" t="n">
         <v>17.7909</v>
       </c>
-      <c r="Y18" s="7" t="n">
+      <c r="Y18" s="6" t="n">
         <v>19.1904</v>
       </c>
-      <c r="Z18" s="7" t="n">
+      <c r="Z18" s="6" t="n">
         <v>18.4979</v>
       </c>
-      <c r="AA18" s="7" t="n">
+      <c r="AA18" s="6" t="n">
         <v>16.1053</v>
       </c>
-      <c r="AB18" s="7" t="n">
+      <c r="AB18" s="6" t="n">
         <v>15.8826</v>
       </c>
-      <c r="AC18" s="8" t="n">
+      <c r="AC18" s="7" t="n">
         <v>15.2254</v>
       </c>
-      <c r="AD18" s="8" t="n">
+      <c r="AD18" s="7" t="n">
         <v>16.0943</v>
       </c>
-      <c r="AE18" s="8" t="n">
+      <c r="AE18" s="7" t="n">
         <v>16.5447</v>
       </c>
-      <c r="AF18" s="8" t="n">
+      <c r="AF18" s="7" t="n">
         <v>16.2747</v>
       </c>
-      <c r="AG18" s="8" t="n">
+      <c r="AG18" s="7" t="n">
         <v>16.2124</v>
       </c>
-      <c r="AH18" s="7" t="n">
+      <c r="AH18" s="6" t="n">
         <v>20.3108</v>
       </c>
-      <c r="AI18" s="7" t="n">
+      <c r="AI18" s="6" t="n">
         <v>19.3152</v>
       </c>
-      <c r="AJ18" s="7" t="n">
+      <c r="AJ18" s="6" t="n">
         <v>21.7294</v>
       </c>
-      <c r="AK18" s="7" t="n">
+      <c r="AK18" s="6" t="n">
         <v>21.4648</v>
       </c>
-      <c r="AL18" s="7" t="n">
+      <c r="AL18" s="6" t="n">
         <v>19.6294</v>
       </c>
-      <c r="AM18" s="8" t="n">
+      <c r="AM18" s="7" t="n">
         <v>18.8237</v>
       </c>
-      <c r="AN18" s="8" t="n">
+      <c r="AN18" s="7" t="n">
         <v>17.9506</v>
       </c>
-      <c r="AO18" s="8" t="n">
+      <c r="AO18" s="7" t="n">
         <v>19.8462</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="7" t="n">
         <v>18.0813</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="7" t="n">
         <v>20.5048</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="7" t="n">
         <v>16.9788</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="7" t="n">
         <v>15.4111</v>
       </c>
-      <c r="G19" s="8" t="n">
+      <c r="G19" s="7" t="n">
         <v>17.6485</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="6" t="n">
         <v>15.1412</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="6" t="n">
         <v>13.8676</v>
       </c>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="6" t="n">
         <v>13.3852</v>
       </c>
-      <c r="K19" s="7" t="n">
+      <c r="K19" s="6" t="n">
         <v>12.6205</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="L19" s="6" t="n">
         <v>15.3392</v>
       </c>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="7" t="n">
         <v>15.5013</v>
       </c>
-      <c r="N19" s="8" t="n">
+      <c r="N19" s="7" t="n">
         <v>15.9215</v>
       </c>
-      <c r="O19" s="8" t="n">
+      <c r="O19" s="7" t="n">
         <v>13.8889</v>
       </c>
-      <c r="P19" s="8" t="n">
+      <c r="P19" s="7" t="n">
         <v>14.3798</v>
       </c>
-      <c r="Q19" s="8" t="n">
+      <c r="Q19" s="7" t="n">
         <v>17.5152</v>
       </c>
-      <c r="R19" s="7" t="n">
+      <c r="R19" s="6" t="n">
         <v>17.289</v>
       </c>
-      <c r="S19" s="7" t="n">
+      <c r="S19" s="6" t="n">
         <v>16.833</v>
       </c>
-      <c r="T19" s="7" t="n">
+      <c r="T19" s="6" t="n">
         <v>19.7385</v>
       </c>
-      <c r="V19" s="9" t="s">
+      <c r="V19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W19" s="10" t="s">
+      <c r="W19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="X19" s="8" t="n">
+      <c r="X19" s="7" t="n">
         <v>18.0813</v>
       </c>
-      <c r="Y19" s="8" t="n">
+      <c r="Y19" s="7" t="n">
         <v>20.5048</v>
       </c>
-      <c r="Z19" s="8" t="n">
+      <c r="Z19" s="7" t="n">
         <v>16.9788</v>
       </c>
-      <c r="AA19" s="8" t="n">
+      <c r="AA19" s="7" t="n">
         <v>15.4111</v>
       </c>
-      <c r="AB19" s="8" t="n">
+      <c r="AB19" s="7" t="n">
         <v>17.6485</v>
       </c>
-      <c r="AC19" s="7" t="n">
+      <c r="AC19" s="6" t="n">
         <v>15.1412</v>
       </c>
-      <c r="AD19" s="7" t="n">
+      <c r="AD19" s="6" t="n">
         <v>13.8676</v>
       </c>
-      <c r="AE19" s="7" t="n">
+      <c r="AE19" s="6" t="n">
         <v>13.3852</v>
       </c>
-      <c r="AF19" s="7" t="n">
+      <c r="AF19" s="6" t="n">
         <v>12.6205</v>
       </c>
-      <c r="AG19" s="7" t="n">
+      <c r="AG19" s="6" t="n">
         <v>15.3392</v>
       </c>
-      <c r="AH19" s="8" t="n">
+      <c r="AH19" s="7" t="n">
         <v>15.5013</v>
       </c>
-      <c r="AI19" s="8" t="n">
+      <c r="AI19" s="7" t="n">
         <v>15.9215</v>
       </c>
-      <c r="AJ19" s="8" t="n">
+      <c r="AJ19" s="7" t="n">
         <v>13.8889</v>
       </c>
-      <c r="AK19" s="8" t="n">
+      <c r="AK19" s="7" t="n">
         <v>14.3798</v>
       </c>
-      <c r="AL19" s="8" t="n">
+      <c r="AL19" s="7" t="n">
         <v>17.5152</v>
       </c>
-      <c r="AM19" s="7" t="n">
+      <c r="AM19" s="6" t="n">
         <v>17.289</v>
       </c>
-      <c r="AN19" s="7" t="n">
+      <c r="AN19" s="6" t="n">
         <v>16.833</v>
       </c>
-      <c r="AO19" s="7" t="n">
+      <c r="AO19" s="6" t="n">
         <v>19.7385</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="7" t="n">
         <v>19.6349</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="7" t="n">
         <v>19.4823</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="7" t="n">
         <v>18.5219</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="7" t="n">
         <v>15.9631</v>
       </c>
-      <c r="G20" s="8" t="n">
+      <c r="G20" s="7" t="n">
         <v>17.2639</v>
       </c>
-      <c r="H20" s="7" t="n">
+      <c r="H20" s="6" t="n">
         <v>15.1298</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="6" t="n">
         <v>15.0302</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="6" t="n">
         <v>15.333</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="6" t="n">
         <v>14.0063</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="6" t="n">
         <v>15.3634</v>
       </c>
-      <c r="M20" s="8" t="n">
+      <c r="M20" s="7" t="n">
         <v>14.9386</v>
       </c>
-      <c r="N20" s="8" t="n">
+      <c r="N20" s="7" t="n">
         <v>14.976</v>
       </c>
-      <c r="O20" s="8" t="n">
+      <c r="O20" s="7" t="n">
         <v>14.8482</v>
       </c>
-      <c r="P20" s="8" t="n">
+      <c r="P20" s="7" t="n">
         <v>15.5459</v>
       </c>
-      <c r="Q20" s="8" t="n">
+      <c r="Q20" s="7" t="n">
         <v>17.2206</v>
       </c>
-      <c r="R20" s="7" t="n">
+      <c r="R20" s="6" t="n">
         <v>18.963</v>
       </c>
-      <c r="S20" s="7" t="n">
+      <c r="S20" s="6" t="n">
         <v>18.7224</v>
       </c>
-      <c r="T20" s="7" t="n">
+      <c r="T20" s="6" t="n">
         <v>20.7368</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W20" s="10" t="s">
+      <c r="W20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="X20" s="8" t="n">
+      <c r="X20" s="7" t="n">
         <v>19.6349</v>
       </c>
-      <c r="Y20" s="8" t="n">
+      <c r="Y20" s="7" t="n">
         <v>19.4823</v>
       </c>
-      <c r="Z20" s="8" t="n">
+      <c r="Z20" s="7" t="n">
         <v>18.5219</v>
       </c>
-      <c r="AA20" s="8" t="n">
+      <c r="AA20" s="7" t="n">
         <v>15.9631</v>
       </c>
-      <c r="AB20" s="8" t="n">
+      <c r="AB20" s="7" t="n">
         <v>17.2639</v>
       </c>
-      <c r="AC20" s="7" t="n">
+      <c r="AC20" s="6" t="n">
         <v>15.1298</v>
       </c>
-      <c r="AD20" s="7" t="n">
+      <c r="AD20" s="6" t="n">
         <v>15.0302</v>
       </c>
-      <c r="AE20" s="7" t="n">
+      <c r="AE20" s="6" t="n">
         <v>15.333</v>
       </c>
-      <c r="AF20" s="7" t="n">
+      <c r="AF20" s="6" t="n">
         <v>14.0063</v>
       </c>
-      <c r="AG20" s="7" t="n">
+      <c r="AG20" s="6" t="n">
         <v>15.3634</v>
       </c>
-      <c r="AH20" s="8" t="n">
+      <c r="AH20" s="7" t="n">
         <v>14.9386</v>
       </c>
-      <c r="AI20" s="8" t="n">
+      <c r="AI20" s="7" t="n">
         <v>14.976</v>
       </c>
-      <c r="AJ20" s="8" t="n">
+      <c r="AJ20" s="7" t="n">
         <v>14.8482</v>
       </c>
-      <c r="AK20" s="8" t="n">
+      <c r="AK20" s="7" t="n">
         <v>15.5459</v>
       </c>
-      <c r="AL20" s="8" t="n">
+      <c r="AL20" s="7" t="n">
         <v>17.2206</v>
       </c>
-      <c r="AM20" s="7" t="n">
+      <c r="AM20" s="6" t="n">
         <v>18.963</v>
       </c>
-      <c r="AN20" s="7" t="n">
+      <c r="AN20" s="6" t="n">
         <v>18.7224</v>
       </c>
-      <c r="AO20" s="7" t="n">
+      <c r="AO20" s="6" t="n">
         <v>20.7368</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="7" t="n">
         <v>18.7913</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="7" t="n">
         <v>19.8318</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="7" t="n">
         <v>16.7817</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="7" t="n">
         <v>15.5103</v>
       </c>
-      <c r="G21" s="8" t="n">
+      <c r="G21" s="7" t="n">
         <v>17.2677</v>
       </c>
-      <c r="H21" s="7" t="n">
+      <c r="H21" s="6" t="n">
         <v>13.7649</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="6" t="n">
         <v>14.9843</v>
       </c>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="6" t="n">
         <v>13.2341</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="6" t="n">
         <v>12.0976</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="L21" s="6" t="n">
         <v>15.3125</v>
       </c>
-      <c r="M21" s="8" t="n">
+      <c r="M21" s="7" t="n">
         <v>14.1688</v>
       </c>
-      <c r="N21" s="8" t="n">
+      <c r="N21" s="7" t="n">
         <v>16.4289</v>
       </c>
-      <c r="O21" s="8" t="n">
+      <c r="O21" s="7" t="n">
         <v>12.3943</v>
       </c>
-      <c r="P21" s="8" t="n">
+      <c r="P21" s="7" t="n">
         <v>14.5538</v>
       </c>
-      <c r="Q21" s="8" t="n">
+      <c r="Q21" s="7" t="n">
         <v>16.286</v>
       </c>
-      <c r="R21" s="7" t="n">
+      <c r="R21" s="6" t="n">
         <v>17.7446</v>
       </c>
-      <c r="S21" s="7" t="n">
+      <c r="S21" s="6" t="n">
         <v>16.4897</v>
       </c>
-      <c r="T21" s="7" t="n">
+      <c r="T21" s="6" t="n">
         <v>18.3614</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="V21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W21" s="10" t="s">
+      <c r="W21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="X21" s="8" t="n">
+      <c r="X21" s="7" t="n">
         <v>18.7913</v>
       </c>
-      <c r="Y21" s="8" t="n">
+      <c r="Y21" s="7" t="n">
         <v>19.8318</v>
       </c>
-      <c r="Z21" s="8" t="n">
+      <c r="Z21" s="7" t="n">
         <v>16.7817</v>
       </c>
-      <c r="AA21" s="8" t="n">
+      <c r="AA21" s="7" t="n">
         <v>15.5103</v>
       </c>
-      <c r="AB21" s="8" t="n">
+      <c r="AB21" s="7" t="n">
         <v>17.2677</v>
       </c>
-      <c r="AC21" s="7" t="n">
+      <c r="AC21" s="6" t="n">
         <v>13.7649</v>
       </c>
-      <c r="AD21" s="7" t="n">
+      <c r="AD21" s="6" t="n">
         <v>14.9843</v>
       </c>
-      <c r="AE21" s="7" t="n">
+      <c r="AE21" s="6" t="n">
         <v>13.2341</v>
       </c>
-      <c r="AF21" s="7" t="n">
+      <c r="AF21" s="6" t="n">
         <v>12.0976</v>
       </c>
-      <c r="AG21" s="7" t="n">
+      <c r="AG21" s="6" t="n">
         <v>15.3125</v>
       </c>
-      <c r="AH21" s="8" t="n">
+      <c r="AH21" s="7" t="n">
         <v>14.1688</v>
       </c>
-      <c r="AI21" s="8" t="n">
+      <c r="AI21" s="7" t="n">
         <v>16.4289</v>
       </c>
-      <c r="AJ21" s="8" t="n">
+      <c r="AJ21" s="7" t="n">
         <v>12.3943</v>
       </c>
-      <c r="AK21" s="8" t="n">
+      <c r="AK21" s="7" t="n">
         <v>14.5538</v>
       </c>
-      <c r="AL21" s="8" t="n">
+      <c r="AL21" s="7" t="n">
         <v>16.286</v>
       </c>
-      <c r="AM21" s="7" t="n">
+      <c r="AM21" s="6" t="n">
         <v>17.7446</v>
       </c>
-      <c r="AN21" s="7" t="n">
+      <c r="AN21" s="6" t="n">
         <v>16.4897</v>
       </c>
-      <c r="AO21" s="7" t="n">
+      <c r="AO21" s="6" t="n">
         <v>18.3614</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="7" t="n">
         <v>19.3105</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="7" t="n">
         <v>19.8667</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="7" t="n">
         <v>15.7595</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="7" t="n">
         <v>15.6534</v>
       </c>
-      <c r="G22" s="8" t="n">
+      <c r="G22" s="7" t="n">
         <v>15.3687</v>
       </c>
-      <c r="H22" s="7" t="n">
+      <c r="H22" s="6" t="n">
         <v>13.6785</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="I22" s="6" t="n">
         <v>14.3886</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="6" t="n">
         <v>13.1474</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="K22" s="6" t="n">
         <v>12.7955</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="L22" s="6" t="n">
         <v>13.8448</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="7" t="n">
         <v>14.9397</v>
       </c>
-      <c r="N22" s="8" t="n">
+      <c r="N22" s="7" t="n">
         <v>11.9493</v>
       </c>
-      <c r="O22" s="8" t="n">
+      <c r="O22" s="7" t="n">
         <v>12.3677</v>
       </c>
-      <c r="P22" s="8" t="n">
+      <c r="P22" s="7" t="n">
         <v>12.1895</v>
       </c>
-      <c r="Q22" s="8" t="n">
+      <c r="Q22" s="7" t="n">
         <v>15.0589</v>
       </c>
-      <c r="R22" s="7" t="n">
+      <c r="R22" s="6" t="n">
         <v>16.9201</v>
       </c>
-      <c r="S22" s="7" t="n">
+      <c r="S22" s="6" t="n">
         <v>16.7512</v>
       </c>
-      <c r="T22" s="7" t="n">
+      <c r="T22" s="6" t="n">
         <v>21.5248</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="V22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="W22" s="10" t="s">
+      <c r="W22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="X22" s="8" t="n">
+      <c r="X22" s="7" t="n">
         <v>19.3105</v>
       </c>
-      <c r="Y22" s="8" t="n">
+      <c r="Y22" s="7" t="n">
         <v>19.8667</v>
       </c>
-      <c r="Z22" s="8" t="n">
+      <c r="Z22" s="7" t="n">
         <v>15.7595</v>
       </c>
-      <c r="AA22" s="8" t="n">
+      <c r="AA22" s="7" t="n">
         <v>15.6534</v>
       </c>
-      <c r="AB22" s="8" t="n">
+      <c r="AB22" s="7" t="n">
         <v>15.3687</v>
       </c>
-      <c r="AC22" s="7" t="n">
+      <c r="AC22" s="6" t="n">
         <v>13.6785</v>
       </c>
-      <c r="AD22" s="7" t="n">
+      <c r="AD22" s="6" t="n">
         <v>14.3886</v>
       </c>
-      <c r="AE22" s="7" t="n">
+      <c r="AE22" s="6" t="n">
         <v>13.1474</v>
       </c>
-      <c r="AF22" s="7" t="n">
+      <c r="AF22" s="6" t="n">
         <v>12.7955</v>
       </c>
-      <c r="AG22" s="7" t="n">
+      <c r="AG22" s="6" t="n">
         <v>13.8448</v>
       </c>
-      <c r="AH22" s="8" t="n">
+      <c r="AH22" s="7" t="n">
         <v>14.9397</v>
       </c>
-      <c r="AI22" s="8" t="n">
+      <c r="AI22" s="7" t="n">
         <v>11.9493</v>
       </c>
-      <c r="AJ22" s="8" t="n">
+      <c r="AJ22" s="7" t="n">
         <v>12.3677</v>
       </c>
-      <c r="AK22" s="8" t="n">
+      <c r="AK22" s="7" t="n">
         <v>12.1895</v>
       </c>
-      <c r="AL22" s="8" t="n">
+      <c r="AL22" s="7" t="n">
         <v>15.0589</v>
       </c>
-      <c r="AM22" s="7" t="n">
+      <c r="AM22" s="6" t="n">
         <v>16.9201</v>
       </c>
-      <c r="AN22" s="7" t="n">
+      <c r="AN22" s="6" t="n">
         <v>16.7512</v>
       </c>
-      <c r="AO22" s="7" t="n">
+      <c r="AO22" s="6" t="n">
         <v>21.5248</v>
       </c>
     </row>
@@ -9524,121 +8907,121 @@
       <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="7" t="n">
+      <c r="C23" s="6" t="n">
         <v>39.0984</v>
       </c>
-      <c r="D23" s="7" t="n">
+      <c r="D23" s="6" t="n">
         <v>34.5357</v>
       </c>
-      <c r="E23" s="7" t="n">
+      <c r="E23" s="6" t="n">
         <v>56.3467</v>
       </c>
-      <c r="F23" s="7" t="n">
+      <c r="F23" s="6" t="n">
         <v>32.824</v>
       </c>
-      <c r="G23" s="7" t="n">
+      <c r="G23" s="6" t="n">
         <v>89.2655</v>
       </c>
-      <c r="H23" s="8" t="n">
+      <c r="H23" s="7" t="n">
         <v>37.0727</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="J23" s="8" t="n">
+      <c r="J23" s="7" t="n">
         <v>81.3995</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="7" t="n">
         <v>68.5126</v>
       </c>
-      <c r="L23" s="8" t="n">
+      <c r="L23" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="M23" s="6" t="n">
         <v>64.9745</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="N23" s="6" t="n">
         <v>20.1012</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="P23" s="6" t="n">
         <v>97.7764</v>
       </c>
-      <c r="Q23" s="7" t="n">
+      <c r="Q23" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="R23" s="8" t="n">
+      <c r="R23" s="7" t="n">
         <v>-100</v>
       </c>
-      <c r="S23" s="8" t="n">
+      <c r="S23" s="7" t="n">
         <v>78.9943</v>
       </c>
-      <c r="T23" s="8" t="n">
+      <c r="T23" s="7" t="n">
         <v>100</v>
       </c>
       <c r="V23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W23" s="6" t="s">
+      <c r="W23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X23" s="7" t="n">
+      <c r="X23" s="6" t="n">
         <v>39.0984</v>
       </c>
-      <c r="Y23" s="7" t="n">
+      <c r="Y23" s="6" t="n">
         <v>34.5357</v>
       </c>
-      <c r="Z23" s="7" t="n">
+      <c r="Z23" s="6" t="n">
         <v>56.3467</v>
       </c>
-      <c r="AA23" s="7" t="n">
+      <c r="AA23" s="6" t="n">
         <v>32.824</v>
       </c>
-      <c r="AB23" s="7" t="n">
+      <c r="AB23" s="6" t="n">
         <v>89.2655</v>
       </c>
-      <c r="AC23" s="8" t="n">
+      <c r="AC23" s="7" t="n">
         <v>37.0727</v>
       </c>
-      <c r="AD23" s="8" t="n">
+      <c r="AD23" s="7" t="n">
         <v>171.169</v>
       </c>
-      <c r="AE23" s="8" t="n">
+      <c r="AE23" s="7" t="n">
         <v>81.3995</v>
       </c>
-      <c r="AF23" s="8" t="n">
+      <c r="AF23" s="7" t="n">
         <v>68.5126</v>
       </c>
-      <c r="AG23" s="8" t="n">
+      <c r="AG23" s="7" t="n">
         <v>124.854</v>
       </c>
-      <c r="AH23" s="7" t="n">
+      <c r="AH23" s="6" t="n">
         <v>64.9745</v>
       </c>
-      <c r="AI23" s="7" t="n">
+      <c r="AI23" s="6" t="n">
         <v>20.1012</v>
       </c>
-      <c r="AJ23" s="7" t="n">
+      <c r="AJ23" s="6" t="n">
         <v>108.89</v>
       </c>
-      <c r="AK23" s="7" t="n">
+      <c r="AK23" s="6" t="n">
         <v>97.7764</v>
       </c>
-      <c r="AL23" s="7" t="n">
+      <c r="AL23" s="6" t="n">
         <v>122.067</v>
       </c>
-      <c r="AM23" s="8" t="n">
+      <c r="AM23" s="7" t="n">
         <v>-999999</v>
       </c>
-      <c r="AN23" s="8" t="n">
+      <c r="AN23" s="7" t="n">
         <v>78.9943</v>
       </c>
-      <c r="AO23" s="8" t="n">
+      <c r="AO23" s="7" t="n">
         <v>161.667</v>
       </c>
     </row>
@@ -9646,121 +9029,121 @@
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="6" t="n">
         <v>27.3118</v>
       </c>
-      <c r="D24" s="7" t="n">
+      <c r="D24" s="6" t="n">
         <v>28.3725</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="6" t="n">
         <v>30.367</v>
       </c>
-      <c r="F24" s="7" t="n">
+      <c r="F24" s="6" t="n">
         <v>29.4771</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="6" t="n">
         <v>88.7185</v>
       </c>
-      <c r="H24" s="8" t="n">
+      <c r="H24" s="7" t="n">
         <v>66.4148</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="7" t="n">
         <v>52.7835</v>
       </c>
-      <c r="J24" s="8" t="n">
+      <c r="J24" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="7" t="n">
         <v>46.7104</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="M24" s="7" t="n">
+      <c r="M24" s="6" t="n">
         <v>71.9597</v>
       </c>
-      <c r="N24" s="7" t="n">
+      <c r="N24" s="6" t="n">
         <v>34.5145</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="6" t="n">
         <v>34.3871</v>
       </c>
-      <c r="P24" s="7" t="n">
+      <c r="P24" s="6" t="n">
         <v>33.9217</v>
       </c>
-      <c r="Q24" s="7" t="n">
+      <c r="Q24" s="6" t="n">
         <v>49.6268</v>
       </c>
-      <c r="R24" s="8" t="n">
+      <c r="R24" s="7" t="n">
         <v>39.8088</v>
       </c>
-      <c r="S24" s="8" t="n">
+      <c r="S24" s="7" t="n">
         <v>65.6301</v>
       </c>
-      <c r="T24" s="8" t="n">
+      <c r="T24" s="7" t="n">
         <v>73.6829</v>
       </c>
       <c r="V24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W24" s="6" t="s">
+      <c r="W24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X24" s="7" t="n">
+      <c r="X24" s="6" t="n">
         <v>27.3118</v>
       </c>
-      <c r="Y24" s="7" t="n">
+      <c r="Y24" s="6" t="n">
         <v>28.3725</v>
       </c>
-      <c r="Z24" s="7" t="n">
+      <c r="Z24" s="6" t="n">
         <v>30.367</v>
       </c>
-      <c r="AA24" s="7" t="n">
+      <c r="AA24" s="6" t="n">
         <v>29.4771</v>
       </c>
-      <c r="AB24" s="7" t="n">
+      <c r="AB24" s="6" t="n">
         <v>88.7185</v>
       </c>
-      <c r="AC24" s="8" t="n">
+      <c r="AC24" s="7" t="n">
         <v>66.4148</v>
       </c>
-      <c r="AD24" s="8" t="n">
+      <c r="AD24" s="7" t="n">
         <v>52.7835</v>
       </c>
-      <c r="AE24" s="8" t="n">
+      <c r="AE24" s="7" t="n">
         <v>314.866</v>
       </c>
-      <c r="AF24" s="8" t="n">
+      <c r="AF24" s="7" t="n">
         <v>46.7104</v>
       </c>
-      <c r="AG24" s="8" t="n">
+      <c r="AG24" s="7" t="n">
         <v>354.31</v>
       </c>
-      <c r="AH24" s="7" t="n">
+      <c r="AH24" s="6" t="n">
         <v>71.9597</v>
       </c>
-      <c r="AI24" s="7" t="n">
+      <c r="AI24" s="6" t="n">
         <v>34.5145</v>
       </c>
-      <c r="AJ24" s="7" t="n">
+      <c r="AJ24" s="6" t="n">
         <v>34.3871</v>
       </c>
-      <c r="AK24" s="7" t="n">
+      <c r="AK24" s="6" t="n">
         <v>33.9217</v>
       </c>
-      <c r="AL24" s="7" t="n">
+      <c r="AL24" s="6" t="n">
         <v>49.6268</v>
       </c>
-      <c r="AM24" s="8" t="n">
+      <c r="AM24" s="7" t="n">
         <v>39.8088</v>
       </c>
-      <c r="AN24" s="8" t="n">
+      <c r="AN24" s="7" t="n">
         <v>65.6301</v>
       </c>
-      <c r="AO24" s="8" t="n">
+      <c r="AO24" s="7" t="n">
         <v>73.6829</v>
       </c>
     </row>
@@ -9768,121 +9151,121 @@
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="7" t="n">
+      <c r="C25" s="6" t="n">
         <v>30.877</v>
       </c>
-      <c r="D25" s="7" t="n">
+      <c r="D25" s="6" t="n">
         <v>24.8654</v>
       </c>
-      <c r="E25" s="7" t="n">
+      <c r="E25" s="6" t="n">
         <v>39.0697</v>
       </c>
-      <c r="F25" s="7" t="n">
+      <c r="F25" s="6" t="n">
         <v>-100</v>
       </c>
-      <c r="G25" s="7" t="n">
+      <c r="G25" s="6" t="n">
         <v>-100</v>
       </c>
-      <c r="H25" s="8" t="n">
+      <c r="H25" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="7" t="n">
         <v>45.8951</v>
       </c>
-      <c r="J25" s="8" t="n">
+      <c r="J25" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="7" t="n">
         <v>45.2586</v>
       </c>
-      <c r="L25" s="8" t="n">
+      <c r="L25" s="7" t="n">
         <v>88.2073</v>
       </c>
-      <c r="M25" s="7" t="n">
+      <c r="M25" s="6" t="n">
         <v>44.944</v>
       </c>
-      <c r="N25" s="7" t="n">
+      <c r="N25" s="6" t="n">
         <v>45.9986</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="6" t="n">
         <v>53.7609</v>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="P25" s="6" t="n">
         <v>51.8696</v>
       </c>
-      <c r="Q25" s="7" t="n">
+      <c r="Q25" s="6" t="n">
         <v>45.804</v>
       </c>
-      <c r="R25" s="8" t="n">
+      <c r="R25" s="7" t="n">
         <v>42.5651</v>
       </c>
-      <c r="S25" s="8" t="n">
+      <c r="S25" s="7" t="n">
         <v>-100</v>
       </c>
-      <c r="T25" s="8" t="n">
+      <c r="T25" s="7" t="n">
         <v>100</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W25" s="6" t="s">
+      <c r="W25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X25" s="7" t="n">
+      <c r="X25" s="6" t="n">
         <v>30.877</v>
       </c>
-      <c r="Y25" s="7" t="n">
+      <c r="Y25" s="6" t="n">
         <v>24.8654</v>
       </c>
-      <c r="Z25" s="7" t="n">
+      <c r="Z25" s="6" t="n">
         <v>39.0697</v>
       </c>
-      <c r="AA25" s="7" t="n">
+      <c r="AA25" s="6" t="n">
         <v>-999999</v>
       </c>
-      <c r="AB25" s="7" t="n">
+      <c r="AB25" s="6" t="n">
         <v>-999999</v>
       </c>
-      <c r="AC25" s="8" t="n">
+      <c r="AC25" s="7" t="n">
         <v>119.835</v>
       </c>
-      <c r="AD25" s="8" t="n">
+      <c r="AD25" s="7" t="n">
         <v>45.8951</v>
       </c>
-      <c r="AE25" s="8" t="n">
+      <c r="AE25" s="7" t="n">
         <v>146.768</v>
       </c>
-      <c r="AF25" s="8" t="n">
+      <c r="AF25" s="7" t="n">
         <v>45.2586</v>
       </c>
-      <c r="AG25" s="8" t="n">
+      <c r="AG25" s="7" t="n">
         <v>88.2073</v>
       </c>
-      <c r="AH25" s="7" t="n">
+      <c r="AH25" s="6" t="n">
         <v>44.944</v>
       </c>
-      <c r="AI25" s="7" t="n">
+      <c r="AI25" s="6" t="n">
         <v>45.9986</v>
       </c>
-      <c r="AJ25" s="7" t="n">
+      <c r="AJ25" s="6" t="n">
         <v>53.7609</v>
       </c>
-      <c r="AK25" s="7" t="n">
+      <c r="AK25" s="6" t="n">
         <v>51.8696</v>
       </c>
-      <c r="AL25" s="7" t="n">
+      <c r="AL25" s="6" t="n">
         <v>45.804</v>
       </c>
-      <c r="AM25" s="8" t="n">
+      <c r="AM25" s="7" t="n">
         <v>42.5651</v>
       </c>
-      <c r="AN25" s="8" t="n">
+      <c r="AN25" s="7" t="n">
         <v>-999999</v>
       </c>
-      <c r="AO25" s="8" t="n">
+      <c r="AO25" s="7" t="n">
         <v>122.846</v>
       </c>
     </row>
@@ -9890,121 +9273,121 @@
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C26" s="6" t="n">
         <v>16.6291</v>
       </c>
-      <c r="D26" s="7" t="n">
+      <c r="D26" s="6" t="n">
         <v>14.5088</v>
       </c>
-      <c r="E26" s="7" t="n">
+      <c r="E26" s="6" t="n">
         <v>10.6655</v>
       </c>
-      <c r="F26" s="7" t="n">
+      <c r="F26" s="6" t="n">
         <v>15.521</v>
       </c>
-      <c r="G26" s="7" t="n">
+      <c r="G26" s="6" t="n">
         <v>23.5931</v>
       </c>
-      <c r="H26" s="8" t="n">
+      <c r="H26" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="J26" s="8" t="n">
+      <c r="J26" s="7" t="n">
         <v>-100</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="7" t="n">
         <v>-100</v>
       </c>
-      <c r="L26" s="8" t="n">
+      <c r="L26" s="7" t="n">
         <v>-53.9111</v>
       </c>
-      <c r="M26" s="7" t="n">
+      <c r="M26" s="6" t="n">
         <v>-100</v>
       </c>
-      <c r="N26" s="7" t="n">
+      <c r="N26" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="O26" s="7" t="n">
+      <c r="O26" s="6" t="n">
         <v>-100</v>
       </c>
-      <c r="P26" s="7" t="n">
+      <c r="P26" s="6" t="n">
         <v>-100</v>
       </c>
-      <c r="Q26" s="11" t="n">
+      <c r="Q26" s="6" t="n">
         <v>-100</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="7" t="n">
         <v>-100</v>
       </c>
-      <c r="S26" s="12" t="n">
+      <c r="S26" s="7" t="n">
         <v>-100</v>
       </c>
-      <c r="T26" s="8" t="n">
+      <c r="T26" s="7" t="n">
         <v>-64.9441</v>
       </c>
       <c r="V26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W26" s="6" t="s">
+      <c r="W26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X26" s="7" t="n">
+      <c r="X26" s="6" t="n">
         <v>16.6291</v>
       </c>
-      <c r="Y26" s="7" t="n">
+      <c r="Y26" s="6" t="n">
         <v>14.5088</v>
       </c>
-      <c r="Z26" s="7" t="n">
+      <c r="Z26" s="6" t="n">
         <v>10.6655</v>
       </c>
-      <c r="AA26" s="7" t="n">
+      <c r="AA26" s="6" t="n">
         <v>15.521</v>
       </c>
-      <c r="AB26" s="7" t="n">
+      <c r="AB26" s="6" t="n">
         <v>23.5931</v>
       </c>
-      <c r="AC26" s="8" t="n">
+      <c r="AC26" s="7" t="n">
         <v>109.389</v>
       </c>
-      <c r="AD26" s="8" t="n">
+      <c r="AD26" s="7" t="n">
         <v>636.243</v>
       </c>
-      <c r="AE26" s="8" t="n">
+      <c r="AE26" s="7" t="n">
         <v>-44901</v>
       </c>
-      <c r="AF26" s="8" t="n">
+      <c r="AF26" s="7" t="n">
         <v>-104.616</v>
       </c>
-      <c r="AG26" s="8" t="n">
+      <c r="AG26" s="7" t="n">
         <v>-53.9111</v>
       </c>
-      <c r="AH26" s="7" t="n">
+      <c r="AH26" s="6" t="n">
         <v>-999999</v>
       </c>
-      <c r="AI26" s="7" t="n">
+      <c r="AI26" s="6" t="n">
         <v>150.546</v>
       </c>
-      <c r="AJ26" s="7" t="n">
+      <c r="AJ26" s="6" t="n">
         <v>-145.062</v>
       </c>
-      <c r="AK26" s="7" t="n">
+      <c r="AK26" s="6" t="n">
         <v>-999999</v>
       </c>
-      <c r="AL26" s="11" t="n">
+      <c r="AL26" s="6" t="n">
         <v>-999999</v>
       </c>
-      <c r="AM26" s="12" t="n">
+      <c r="AM26" s="7" t="n">
         <v>-999999</v>
       </c>
-      <c r="AN26" s="12" t="n">
+      <c r="AN26" s="7" t="n">
         <v>-999999</v>
       </c>
-      <c r="AO26" s="8" t="n">
+      <c r="AO26" s="7" t="n">
         <v>-64.9441</v>
       </c>
     </row>
@@ -10012,853 +9395,853 @@
       <c r="A27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="6" t="n">
         <v>42.6423</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="6" t="n">
         <v>21.472</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="6" t="n">
         <v>32.0598</v>
       </c>
-      <c r="F27" s="7" t="n">
+      <c r="F27" s="6" t="n">
         <v>23.6213</v>
       </c>
-      <c r="G27" s="7" t="n">
+      <c r="G27" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="H27" s="8" t="n">
+      <c r="H27" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="7" t="n">
         <v>49.106</v>
       </c>
-      <c r="J27" s="8" t="n">
+      <c r="J27" s="7" t="n">
         <v>59.0289</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="7" t="n">
         <v>41.1573</v>
       </c>
-      <c r="L27" s="8" t="n">
+      <c r="L27" s="7" t="n">
         <v>31.1404</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="M27" s="6" t="n">
         <v>55.3785</v>
       </c>
-      <c r="N27" s="7" t="n">
+      <c r="N27" s="6" t="n">
         <v>26.8929</v>
       </c>
-      <c r="O27" s="7" t="n">
+      <c r="O27" s="6" t="n">
         <v>77.3573</v>
       </c>
-      <c r="P27" s="7" t="n">
+      <c r="P27" s="6" t="n">
         <v>41.5172</v>
       </c>
-      <c r="Q27" s="7" t="n">
+      <c r="Q27" s="6" t="n">
         <v>84.2815</v>
       </c>
-      <c r="R27" s="8" t="n">
+      <c r="R27" s="7" t="n">
         <v>-100</v>
       </c>
-      <c r="S27" s="8" t="n">
+      <c r="S27" s="7" t="n">
         <v>-100</v>
       </c>
-      <c r="T27" s="8" t="n">
+      <c r="T27" s="7" t="n">
         <v>100</v>
       </c>
       <c r="V27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W27" s="6" t="s">
+      <c r="W27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="X27" s="7" t="n">
+      <c r="X27" s="6" t="n">
         <v>42.6423</v>
       </c>
-      <c r="Y27" s="7" t="n">
+      <c r="Y27" s="6" t="n">
         <v>21.472</v>
       </c>
-      <c r="Z27" s="7" t="n">
+      <c r="Z27" s="6" t="n">
         <v>32.0598</v>
       </c>
-      <c r="AA27" s="7" t="n">
+      <c r="AA27" s="6" t="n">
         <v>23.6213</v>
       </c>
-      <c r="AB27" s="7" t="n">
+      <c r="AB27" s="6" t="n">
         <v>853.889</v>
       </c>
-      <c r="AC27" s="8" t="n">
+      <c r="AC27" s="7" t="n">
         <v>119.527</v>
       </c>
-      <c r="AD27" s="8" t="n">
+      <c r="AD27" s="7" t="n">
         <v>49.106</v>
       </c>
-      <c r="AE27" s="8" t="n">
+      <c r="AE27" s="7" t="n">
         <v>59.0289</v>
       </c>
-      <c r="AF27" s="8" t="n">
+      <c r="AF27" s="7" t="n">
         <v>41.1573</v>
       </c>
-      <c r="AG27" s="8" t="n">
+      <c r="AG27" s="7" t="n">
         <v>31.1404</v>
       </c>
-      <c r="AH27" s="7" t="n">
+      <c r="AH27" s="6" t="n">
         <v>55.3785</v>
       </c>
-      <c r="AI27" s="7" t="n">
+      <c r="AI27" s="6" t="n">
         <v>26.8929</v>
       </c>
-      <c r="AJ27" s="7" t="n">
+      <c r="AJ27" s="6" t="n">
         <v>77.3573</v>
       </c>
-      <c r="AK27" s="7" t="n">
+      <c r="AK27" s="6" t="n">
         <v>41.5172</v>
       </c>
-      <c r="AL27" s="7" t="n">
+      <c r="AL27" s="6" t="n">
         <v>84.2815</v>
       </c>
-      <c r="AM27" s="8" t="n">
+      <c r="AM27" s="7" t="n">
         <v>-999999</v>
       </c>
-      <c r="AN27" s="8" t="n">
+      <c r="AN27" s="7" t="n">
         <v>-999999</v>
       </c>
-      <c r="AO27" s="8" t="n">
+      <c r="AO27" s="7" t="n">
         <v>171.809</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="7" t="n">
         <v>16.1577</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="7" t="n">
         <v>15.7945</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="7" t="n">
         <v>17.4076</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="7" t="n">
         <v>17.3485</v>
       </c>
-      <c r="G28" s="8" t="n">
+      <c r="G28" s="7" t="n">
         <v>16.5611</v>
       </c>
-      <c r="H28" s="7" t="n">
+      <c r="H28" s="6" t="n">
         <v>14.4357</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="I28" s="6" t="n">
         <v>14.1329</v>
       </c>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="6" t="n">
         <v>14.4174</v>
       </c>
-      <c r="K28" s="7" t="n">
+      <c r="K28" s="6" t="n">
         <v>13.2296</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="L28" s="6" t="n">
         <v>14.1617</v>
       </c>
-      <c r="M28" s="8" t="n">
+      <c r="M28" s="7" t="n">
         <v>14.4682</v>
       </c>
-      <c r="N28" s="8" t="n">
+      <c r="N28" s="7" t="n">
         <v>16.0596</v>
       </c>
-      <c r="O28" s="8" t="n">
+      <c r="O28" s="7" t="n">
         <v>16.2733</v>
       </c>
-      <c r="P28" s="8" t="n">
+      <c r="P28" s="7" t="n">
         <v>14.3997</v>
       </c>
-      <c r="Q28" s="8" t="n">
+      <c r="Q28" s="7" t="n">
         <v>17.0316</v>
       </c>
-      <c r="R28" s="7" t="n">
+      <c r="R28" s="6" t="n">
         <v>17.1214</v>
       </c>
-      <c r="S28" s="7" t="n">
+      <c r="S28" s="6" t="n">
         <v>16.0399</v>
       </c>
-      <c r="T28" s="7" t="n">
+      <c r="T28" s="6" t="n">
         <v>15.9771</v>
       </c>
-      <c r="V28" s="9" t="s">
+      <c r="V28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W28" s="10" t="s">
+      <c r="W28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="X28" s="8" t="n">
+      <c r="X28" s="7" t="n">
         <v>16.1577</v>
       </c>
-      <c r="Y28" s="8" t="n">
+      <c r="Y28" s="7" t="n">
         <v>15.7945</v>
       </c>
-      <c r="Z28" s="8" t="n">
+      <c r="Z28" s="7" t="n">
         <v>17.4076</v>
       </c>
-      <c r="AA28" s="8" t="n">
+      <c r="AA28" s="7" t="n">
         <v>17.3485</v>
       </c>
-      <c r="AB28" s="8" t="n">
+      <c r="AB28" s="7" t="n">
         <v>16.5611</v>
       </c>
-      <c r="AC28" s="7" t="n">
+      <c r="AC28" s="6" t="n">
         <v>14.4357</v>
       </c>
-      <c r="AD28" s="7" t="n">
+      <c r="AD28" s="6" t="n">
         <v>14.1329</v>
       </c>
-      <c r="AE28" s="7" t="n">
+      <c r="AE28" s="6" t="n">
         <v>14.4174</v>
       </c>
-      <c r="AF28" s="7" t="n">
+      <c r="AF28" s="6" t="n">
         <v>13.2296</v>
       </c>
-      <c r="AG28" s="7" t="n">
+      <c r="AG28" s="6" t="n">
         <v>14.1617</v>
       </c>
-      <c r="AH28" s="8" t="n">
+      <c r="AH28" s="7" t="n">
         <v>14.4682</v>
       </c>
-      <c r="AI28" s="8" t="n">
+      <c r="AI28" s="7" t="n">
         <v>16.0596</v>
       </c>
-      <c r="AJ28" s="8" t="n">
+      <c r="AJ28" s="7" t="n">
         <v>16.2733</v>
       </c>
-      <c r="AK28" s="8" t="n">
+      <c r="AK28" s="7" t="n">
         <v>14.3997</v>
       </c>
-      <c r="AL28" s="8" t="n">
+      <c r="AL28" s="7" t="n">
         <v>17.0316</v>
       </c>
-      <c r="AM28" s="7" t="n">
+      <c r="AM28" s="6" t="n">
         <v>171214</v>
       </c>
-      <c r="AN28" s="7" t="n">
+      <c r="AN28" s="6" t="n">
         <v>16.0399</v>
       </c>
-      <c r="AO28" s="7" t="n">
+      <c r="AO28" s="6" t="n">
         <v>15.9771</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="7" t="n">
         <v>18.9566</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="7" t="n">
         <v>16.4614</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="7" t="n">
         <v>17.8216</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="7" t="n">
         <v>18.3382</v>
       </c>
-      <c r="G29" s="8" t="n">
+      <c r="G29" s="7" t="n">
         <v>16.0162</v>
       </c>
-      <c r="H29" s="7" t="n">
+      <c r="H29" s="6" t="n">
         <v>14.7597</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="6" t="n">
         <v>15.3251</v>
       </c>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="6" t="n">
         <v>13.2789</v>
       </c>
-      <c r="K29" s="7" t="n">
+      <c r="K29" s="6" t="n">
         <v>13.5282</v>
       </c>
-      <c r="L29" s="7" t="n">
+      <c r="L29" s="6" t="n">
         <v>12.5735</v>
       </c>
-      <c r="M29" s="8" t="n">
+      <c r="M29" s="7" t="n">
         <v>14.3421</v>
       </c>
-      <c r="N29" s="8" t="n">
+      <c r="N29" s="7" t="n">
         <v>14.7803</v>
       </c>
-      <c r="O29" s="8" t="n">
+      <c r="O29" s="7" t="n">
         <v>14.4301</v>
       </c>
-      <c r="P29" s="8" t="n">
+      <c r="P29" s="7" t="n">
         <v>16.2716</v>
       </c>
-      <c r="Q29" s="8" t="n">
+      <c r="Q29" s="7" t="n">
         <v>16.2993</v>
       </c>
-      <c r="R29" s="7" t="n">
+      <c r="R29" s="6" t="n">
         <v>15.6023</v>
       </c>
-      <c r="S29" s="7" t="n">
+      <c r="S29" s="6" t="n">
         <v>17.1021</v>
       </c>
-      <c r="T29" s="7" t="n">
+      <c r="T29" s="6" t="n">
         <v>17.7792</v>
       </c>
-      <c r="V29" s="9" t="s">
+      <c r="V29" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W29" s="10" t="s">
+      <c r="W29" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="X29" s="8" t="n">
+      <c r="X29" s="7" t="n">
         <v>18.9566</v>
       </c>
-      <c r="Y29" s="8" t="n">
+      <c r="Y29" s="7" t="n">
         <v>16.4614</v>
       </c>
-      <c r="Z29" s="8" t="n">
+      <c r="Z29" s="7" t="n">
         <v>17.8216</v>
       </c>
-      <c r="AA29" s="8" t="n">
+      <c r="AA29" s="7" t="n">
         <v>18.3382</v>
       </c>
-      <c r="AB29" s="8" t="n">
+      <c r="AB29" s="7" t="n">
         <v>16.0162</v>
       </c>
-      <c r="AC29" s="7" t="n">
+      <c r="AC29" s="6" t="n">
         <v>14.7597</v>
       </c>
-      <c r="AD29" s="7" t="n">
+      <c r="AD29" s="6" t="n">
         <v>15.3251</v>
       </c>
-      <c r="AE29" s="7" t="n">
+      <c r="AE29" s="6" t="n">
         <v>13.2789</v>
       </c>
-      <c r="AF29" s="7" t="n">
+      <c r="AF29" s="6" t="n">
         <v>13.5282</v>
       </c>
-      <c r="AG29" s="7" t="n">
+      <c r="AG29" s="6" t="n">
         <v>12.5735</v>
       </c>
-      <c r="AH29" s="8" t="n">
+      <c r="AH29" s="7" t="n">
         <v>14.3421</v>
       </c>
-      <c r="AI29" s="8" t="n">
+      <c r="AI29" s="7" t="n">
         <v>14.7803</v>
       </c>
-      <c r="AJ29" s="8" t="n">
+      <c r="AJ29" s="7" t="n">
         <v>14.4301</v>
       </c>
-      <c r="AK29" s="8" t="n">
+      <c r="AK29" s="7" t="n">
         <v>16.2716</v>
       </c>
-      <c r="AL29" s="8" t="n">
+      <c r="AL29" s="7" t="n">
         <v>16.2993</v>
       </c>
-      <c r="AM29" s="7" t="n">
+      <c r="AM29" s="6" t="n">
         <v>15.6023</v>
       </c>
-      <c r="AN29" s="7" t="n">
+      <c r="AN29" s="6" t="n">
         <v>17.1021</v>
       </c>
-      <c r="AO29" s="7" t="n">
+      <c r="AO29" s="6" t="n">
         <v>17.7792</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="7" t="n">
         <v>17.9635</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="7" t="n">
         <v>15.9411</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="7" t="n">
         <v>15.963</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="7" t="n">
         <v>17.6348</v>
       </c>
-      <c r="G30" s="8" t="n">
+      <c r="G30" s="7" t="n">
         <v>16.3963</v>
       </c>
-      <c r="H30" s="7" t="n">
+      <c r="H30" s="6" t="n">
         <v>15.7572</v>
       </c>
-      <c r="I30" s="7" t="n">
+      <c r="I30" s="6" t="n">
         <v>14.2889</v>
       </c>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="6" t="n">
         <v>13.787</v>
       </c>
-      <c r="K30" s="7" t="n">
+      <c r="K30" s="6" t="n">
         <v>13.137</v>
       </c>
-      <c r="L30" s="7" t="n">
+      <c r="L30" s="6" t="n">
         <v>13.5765</v>
       </c>
-      <c r="M30" s="8" t="n">
+      <c r="M30" s="7" t="n">
         <v>13.714</v>
       </c>
-      <c r="N30" s="8" t="n">
+      <c r="N30" s="7" t="n">
         <v>15.3654</v>
       </c>
-      <c r="O30" s="8" t="n">
+      <c r="O30" s="7" t="n">
         <v>15.4801</v>
       </c>
-      <c r="P30" s="8" t="n">
+      <c r="P30" s="7" t="n">
         <v>14.7676</v>
       </c>
-      <c r="Q30" s="8" t="n">
+      <c r="Q30" s="7" t="n">
         <v>16.0979</v>
       </c>
-      <c r="R30" s="7" t="n">
+      <c r="R30" s="6" t="n">
         <v>15.2546</v>
       </c>
-      <c r="S30" s="7" t="n">
+      <c r="S30" s="6" t="n">
         <v>15.4318</v>
       </c>
-      <c r="T30" s="7" t="n">
+      <c r="T30" s="6" t="n">
         <v>16.2786</v>
       </c>
-      <c r="V30" s="9" t="s">
+      <c r="V30" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W30" s="10" t="s">
+      <c r="W30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="X30" s="8" t="n">
+      <c r="X30" s="7" t="n">
         <v>17.9635</v>
       </c>
-      <c r="Y30" s="8" t="n">
+      <c r="Y30" s="7" t="n">
         <v>15.9411</v>
       </c>
-      <c r="Z30" s="8" t="n">
+      <c r="Z30" s="7" t="n">
         <v>15.963</v>
       </c>
-      <c r="AA30" s="8" t="n">
+      <c r="AA30" s="7" t="n">
         <v>17.6348</v>
       </c>
-      <c r="AB30" s="8" t="n">
+      <c r="AB30" s="7" t="n">
         <v>16.3963</v>
       </c>
-      <c r="AC30" s="7" t="n">
+      <c r="AC30" s="6" t="n">
         <v>15.7572</v>
       </c>
-      <c r="AD30" s="7" t="n">
+      <c r="AD30" s="6" t="n">
         <v>14.2889</v>
       </c>
-      <c r="AE30" s="7" t="n">
+      <c r="AE30" s="6" t="n">
         <v>13.787</v>
       </c>
-      <c r="AF30" s="7" t="n">
+      <c r="AF30" s="6" t="n">
         <v>13.137</v>
       </c>
-      <c r="AG30" s="7" t="n">
+      <c r="AG30" s="6" t="n">
         <v>13.5765</v>
       </c>
-      <c r="AH30" s="8" t="n">
+      <c r="AH30" s="7" t="n">
         <v>13.714</v>
       </c>
-      <c r="AI30" s="8" t="n">
+      <c r="AI30" s="7" t="n">
         <v>15.3654</v>
       </c>
-      <c r="AJ30" s="8" t="n">
+      <c r="AJ30" s="7" t="n">
         <v>15.4801</v>
       </c>
-      <c r="AK30" s="8" t="n">
+      <c r="AK30" s="7" t="n">
         <v>14.7676</v>
       </c>
-      <c r="AL30" s="8" t="n">
+      <c r="AL30" s="7" t="n">
         <v>16.0979</v>
       </c>
-      <c r="AM30" s="7" t="n">
+      <c r="AM30" s="6" t="n">
         <v>15.2546</v>
       </c>
-      <c r="AN30" s="7" t="n">
+      <c r="AN30" s="6" t="n">
         <v>15.4318</v>
       </c>
-      <c r="AO30" s="7" t="n">
+      <c r="AO30" s="6" t="n">
         <v>16.2786</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="7" t="n">
         <v>16.6497</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="7" t="n">
         <v>15.6077</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="7" t="n">
         <v>18.1301</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="7" t="n">
         <v>18.5969</v>
       </c>
-      <c r="G31" s="8" t="n">
+      <c r="G31" s="7" t="n">
         <v>16.6169</v>
       </c>
-      <c r="H31" s="7" t="n">
+      <c r="H31" s="6" t="n">
         <v>15.3645</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="I31" s="6" t="n">
         <v>15.0015</v>
       </c>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="6" t="n">
         <v>13.8083</v>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="K31" s="6" t="n">
         <v>13.6799</v>
       </c>
-      <c r="L31" s="7" t="n">
+      <c r="L31" s="6" t="n">
         <v>13.3406</v>
       </c>
-      <c r="M31" s="8" t="n">
+      <c r="M31" s="7" t="n">
         <v>15.0636</v>
       </c>
-      <c r="N31" s="8" t="n">
+      <c r="N31" s="7" t="n">
         <v>14.2755</v>
       </c>
-      <c r="O31" s="8" t="n">
+      <c r="O31" s="7" t="n">
         <v>16.185</v>
       </c>
-      <c r="P31" s="8" t="n">
+      <c r="P31" s="7" t="n">
         <v>15.8861</v>
       </c>
-      <c r="Q31" s="8" t="n">
+      <c r="Q31" s="7" t="n">
         <v>16.3492</v>
       </c>
-      <c r="R31" s="7" t="n">
+      <c r="R31" s="6" t="n">
         <v>16.2244</v>
       </c>
-      <c r="S31" s="7" t="n">
+      <c r="S31" s="6" t="n">
         <v>15.7128</v>
       </c>
-      <c r="T31" s="7" t="n">
+      <c r="T31" s="6" t="n">
         <v>15.6942</v>
       </c>
-      <c r="V31" s="9" t="s">
+      <c r="V31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W31" s="10" t="s">
+      <c r="W31" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X31" s="8" t="n">
+      <c r="X31" s="7" t="n">
         <v>16.6497</v>
       </c>
-      <c r="Y31" s="8" t="n">
+      <c r="Y31" s="7" t="n">
         <v>15.6077</v>
       </c>
-      <c r="Z31" s="8" t="n">
+      <c r="Z31" s="7" t="n">
         <v>18.1301</v>
       </c>
-      <c r="AA31" s="8" t="n">
+      <c r="AA31" s="7" t="n">
         <v>18.5969</v>
       </c>
-      <c r="AB31" s="8" t="n">
+      <c r="AB31" s="7" t="n">
         <v>16.6169</v>
       </c>
-      <c r="AC31" s="7" t="n">
+      <c r="AC31" s="6" t="n">
         <v>15.3645</v>
       </c>
-      <c r="AD31" s="7" t="n">
+      <c r="AD31" s="6" t="n">
         <v>15.0015</v>
       </c>
-      <c r="AE31" s="7" t="n">
+      <c r="AE31" s="6" t="n">
         <v>13.8083</v>
       </c>
-      <c r="AF31" s="7" t="n">
+      <c r="AF31" s="6" t="n">
         <v>13.6799</v>
       </c>
-      <c r="AG31" s="7" t="n">
+      <c r="AG31" s="6" t="n">
         <v>13.3406</v>
       </c>
-      <c r="AH31" s="8" t="n">
+      <c r="AH31" s="7" t="n">
         <v>15.0636</v>
       </c>
-      <c r="AI31" s="8" t="n">
+      <c r="AI31" s="7" t="n">
         <v>14.2755</v>
       </c>
-      <c r="AJ31" s="8" t="n">
+      <c r="AJ31" s="7" t="n">
         <v>16.185</v>
       </c>
-      <c r="AK31" s="8" t="n">
+      <c r="AK31" s="7" t="n">
         <v>15.8861</v>
       </c>
-      <c r="AL31" s="8" t="n">
+      <c r="AL31" s="7" t="n">
         <v>16.3492</v>
       </c>
-      <c r="AM31" s="7" t="n">
+      <c r="AM31" s="6" t="n">
         <v>16.2244</v>
       </c>
-      <c r="AN31" s="7" t="n">
+      <c r="AN31" s="6" t="n">
         <v>15.7128</v>
       </c>
-      <c r="AO31" s="7" t="n">
+      <c r="AO31" s="6" t="n">
         <v>15.6942</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="7" t="n">
         <v>18.8309</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="7" t="n">
         <v>16.3806</v>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="E32" s="7" t="n">
         <v>16.9472</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="7" t="n">
         <v>18.09</v>
       </c>
-      <c r="G32" s="8" t="n">
+      <c r="G32" s="7" t="n">
         <v>16.3097</v>
       </c>
-      <c r="H32" s="7" t="n">
+      <c r="H32" s="6" t="n">
         <v>15.5735</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="6" t="n">
         <v>13.6333</v>
       </c>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="6" t="n">
         <v>12.7101</v>
       </c>
-      <c r="K32" s="7" t="n">
+      <c r="K32" s="6" t="n">
         <v>12.3608</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="L32" s="6" t="n">
         <v>12.8218</v>
       </c>
-      <c r="M32" s="8" t="n">
+      <c r="M32" s="7" t="n">
         <v>13.1804</v>
       </c>
-      <c r="N32" s="8" t="n">
+      <c r="N32" s="7" t="n">
         <v>14.1134</v>
       </c>
-      <c r="O32" s="8" t="n">
+      <c r="O32" s="7" t="n">
         <v>12.7743</v>
       </c>
-      <c r="P32" s="8" t="n">
+      <c r="P32" s="7" t="n">
         <v>15.2545</v>
       </c>
-      <c r="Q32" s="8" t="n">
+      <c r="Q32" s="7" t="n">
         <v>14.7968</v>
       </c>
-      <c r="R32" s="7" t="n">
+      <c r="R32" s="6" t="n">
         <v>14.7799</v>
       </c>
-      <c r="S32" s="7" t="n">
+      <c r="S32" s="6" t="n">
         <v>15.1003</v>
       </c>
-      <c r="T32" s="7" t="n">
+      <c r="T32" s="6" t="n">
         <v>15.1618</v>
       </c>
-      <c r="V32" s="9" t="s">
+      <c r="V32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W32" s="10" t="s">
+      <c r="W32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="X32" s="8" t="n">
+      <c r="X32" s="7" t="n">
         <v>18.8309</v>
       </c>
-      <c r="Y32" s="8" t="n">
+      <c r="Y32" s="7" t="n">
         <v>16.3806</v>
       </c>
-      <c r="Z32" s="8" t="n">
+      <c r="Z32" s="7" t="n">
         <v>16.9472</v>
       </c>
-      <c r="AA32" s="8" t="n">
+      <c r="AA32" s="7" t="n">
         <v>18.09</v>
       </c>
-      <c r="AB32" s="8" t="n">
+      <c r="AB32" s="7" t="n">
         <v>16.3097</v>
       </c>
-      <c r="AC32" s="7" t="n">
+      <c r="AC32" s="6" t="n">
         <v>15.5735</v>
       </c>
-      <c r="AD32" s="7" t="n">
+      <c r="AD32" s="6" t="n">
         <v>13.6333</v>
       </c>
-      <c r="AE32" s="7" t="n">
+      <c r="AE32" s="6" t="n">
         <v>12.7101</v>
       </c>
-      <c r="AF32" s="7" t="n">
+      <c r="AF32" s="6" t="n">
         <v>12.3608</v>
       </c>
-      <c r="AG32" s="7" t="n">
+      <c r="AG32" s="6" t="n">
         <v>12.8218</v>
       </c>
-      <c r="AH32" s="8" t="n">
+      <c r="AH32" s="7" t="n">
         <v>13.1804</v>
       </c>
-      <c r="AI32" s="8" t="n">
+      <c r="AI32" s="7" t="n">
         <v>14.1134</v>
       </c>
-      <c r="AJ32" s="8" t="n">
+      <c r="AJ32" s="7" t="n">
         <v>12.7743</v>
       </c>
-      <c r="AK32" s="8" t="n">
+      <c r="AK32" s="7" t="n">
         <v>15.2545</v>
       </c>
-      <c r="AL32" s="8" t="n">
+      <c r="AL32" s="7" t="n">
         <v>14.7968</v>
       </c>
-      <c r="AM32" s="7" t="n">
+      <c r="AM32" s="6" t="n">
         <v>14.7799</v>
       </c>
-      <c r="AN32" s="7" t="n">
+      <c r="AN32" s="6" t="n">
         <v>15.1003</v>
       </c>
-      <c r="AO32" s="7" t="n">
+      <c r="AO32" s="6" t="n">
         <v>15.1618</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="7" t="n">
         <v>16.8507</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="7" t="n">
         <v>17.013</v>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="E33" s="7" t="n">
         <v>17.437</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="7" t="n">
         <v>18.0332</v>
       </c>
-      <c r="G33" s="8" t="n">
+      <c r="G33" s="7" t="n">
         <v>15.7564</v>
       </c>
-      <c r="H33" s="7" t="n">
+      <c r="H33" s="6" t="n">
         <v>14.6685</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="6" t="n">
         <v>14.2282</v>
       </c>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="6" t="n">
         <v>13.1842</v>
       </c>
-      <c r="K33" s="7" t="n">
+      <c r="K33" s="6" t="n">
         <v>13.8297</v>
       </c>
-      <c r="L33" s="7" t="n">
+      <c r="L33" s="6" t="n">
         <v>11.6151</v>
       </c>
-      <c r="M33" s="8" t="n">
+      <c r="M33" s="7" t="n">
         <v>15.3491</v>
       </c>
-      <c r="N33" s="8" t="n">
+      <c r="N33" s="7" t="n">
         <v>14.0033</v>
       </c>
-      <c r="O33" s="8" t="n">
+      <c r="O33" s="7" t="n">
         <v>13.9011</v>
       </c>
-      <c r="P33" s="8" t="n">
+      <c r="P33" s="7" t="n">
         <v>14.3568</v>
       </c>
-      <c r="Q33" s="8" t="n">
+      <c r="Q33" s="7" t="n">
         <v>15.2743</v>
       </c>
-      <c r="R33" s="7" t="n">
+      <c r="R33" s="6" t="n">
         <v>14.3485</v>
       </c>
-      <c r="S33" s="7" t="n">
+      <c r="S33" s="6" t="n">
         <v>15.2525</v>
       </c>
-      <c r="T33" s="7" t="n">
+      <c r="T33" s="6" t="n">
         <v>15.6186</v>
       </c>
-      <c r="V33" s="9" t="s">
+      <c r="V33" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="W33" s="10" t="s">
+      <c r="W33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="X33" s="8" t="n">
+      <c r="X33" s="7" t="n">
         <v>16.8507</v>
       </c>
-      <c r="Y33" s="8" t="n">
+      <c r="Y33" s="7" t="n">
         <v>17.013</v>
       </c>
-      <c r="Z33" s="8" t="n">
+      <c r="Z33" s="7" t="n">
         <v>17.437</v>
       </c>
-      <c r="AA33" s="8" t="n">
+      <c r="AA33" s="7" t="n">
         <v>18.0332</v>
       </c>
-      <c r="AB33" s="8" t="n">
+      <c r="AB33" s="7" t="n">
         <v>15.7564</v>
       </c>
-      <c r="AC33" s="7" t="n">
+      <c r="AC33" s="6" t="n">
         <v>14.6685</v>
       </c>
-      <c r="AD33" s="7" t="n">
+      <c r="AD33" s="6" t="n">
         <v>14.2282</v>
       </c>
-      <c r="AE33" s="7" t="n">
+      <c r="AE33" s="6" t="n">
         <v>13.1842</v>
       </c>
-      <c r="AF33" s="7" t="n">
+      <c r="AF33" s="6" t="n">
         <v>13.8297</v>
       </c>
-      <c r="AG33" s="7" t="n">
+      <c r="AG33" s="6" t="n">
         <v>11.6151</v>
       </c>
-      <c r="AH33" s="8" t="n">
+      <c r="AH33" s="7" t="n">
         <v>15.3491</v>
       </c>
-      <c r="AI33" s="8" t="n">
+      <c r="AI33" s="7" t="n">
         <v>14.0033</v>
       </c>
-      <c r="AJ33" s="8" t="n">
+      <c r="AJ33" s="7" t="n">
         <v>13.9011</v>
       </c>
-      <c r="AK33" s="8" t="n">
+      <c r="AK33" s="7" t="n">
         <v>14.3568</v>
       </c>
-      <c r="AL33" s="8" t="n">
+      <c r="AL33" s="7" t="n">
         <v>15.2743</v>
       </c>
-      <c r="AM33" s="7" t="n">
+      <c r="AM33" s="6" t="n">
         <v>14.3485</v>
       </c>
-      <c r="AN33" s="7" t="n">
+      <c r="AN33" s="6" t="n">
         <v>15.2525</v>
       </c>
-      <c r="AO33" s="7" t="n">
+      <c r="AO33" s="6" t="n">
         <v>15.6186</v>
       </c>
     </row>
@@ -10866,121 +10249,121 @@
       <c r="A34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="7" t="n">
+      <c r="C34" s="6" t="n">
         <v>16.1035</v>
       </c>
-      <c r="D34" s="7" t="n">
+      <c r="D34" s="6" t="n">
         <v>14.9486</v>
       </c>
-      <c r="E34" s="7" t="n">
+      <c r="E34" s="6" t="n">
         <v>15.8169</v>
       </c>
-      <c r="F34" s="7" t="n">
+      <c r="F34" s="6" t="n">
         <v>18.5846</v>
       </c>
-      <c r="G34" s="7" t="n">
+      <c r="G34" s="6" t="n">
         <v>16.8622</v>
       </c>
-      <c r="H34" s="8" t="n">
+      <c r="H34" s="7" t="n">
         <v>14.9201</v>
       </c>
-      <c r="I34" s="8" t="n">
+      <c r="I34" s="7" t="n">
         <v>17.0371</v>
       </c>
-      <c r="J34" s="8" t="n">
+      <c r="J34" s="7" t="n">
         <v>19.5978</v>
       </c>
-      <c r="K34" s="8" t="n">
+      <c r="K34" s="7" t="n">
         <v>17.0888</v>
       </c>
-      <c r="L34" s="8" t="n">
+      <c r="L34" s="7" t="n">
         <v>19.0727</v>
       </c>
-      <c r="M34" s="7" t="n">
+      <c r="M34" s="6" t="n">
         <v>29.7895</v>
       </c>
-      <c r="N34" s="7" t="n">
+      <c r="N34" s="6" t="n">
         <v>24.05</v>
       </c>
-      <c r="O34" s="7" t="n">
+      <c r="O34" s="6" t="n">
         <v>29.6577</v>
       </c>
-      <c r="P34" s="7" t="n">
+      <c r="P34" s="6" t="n">
         <v>24.2447</v>
       </c>
-      <c r="Q34" s="7" t="n">
+      <c r="Q34" s="6" t="n">
         <v>26.7112</v>
       </c>
-      <c r="R34" s="8" t="n">
+      <c r="R34" s="7" t="n">
         <v>23.1762</v>
       </c>
-      <c r="S34" s="8" t="n">
+      <c r="S34" s="7" t="n">
         <v>30.6127</v>
       </c>
-      <c r="T34" s="8" t="n">
+      <c r="T34" s="7" t="n">
         <v>24.9414</v>
       </c>
       <c r="V34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W34" s="6" t="s">
+      <c r="W34" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="X34" s="7" t="n">
+      <c r="X34" s="6" t="n">
         <v>16.1035</v>
       </c>
-      <c r="Y34" s="7" t="n">
+      <c r="Y34" s="6" t="n">
         <v>14.9486</v>
       </c>
-      <c r="Z34" s="7" t="n">
+      <c r="Z34" s="6" t="n">
         <v>15.8169</v>
       </c>
-      <c r="AA34" s="7" t="n">
+      <c r="AA34" s="6" t="n">
         <v>18.5846</v>
       </c>
-      <c r="AB34" s="7" t="n">
+      <c r="AB34" s="6" t="n">
         <v>16.8622</v>
       </c>
-      <c r="AC34" s="8" t="n">
+      <c r="AC34" s="7" t="n">
         <v>14.9201</v>
       </c>
-      <c r="AD34" s="8" t="n">
+      <c r="AD34" s="7" t="n">
         <v>17.0371</v>
       </c>
-      <c r="AE34" s="8" t="n">
+      <c r="AE34" s="7" t="n">
         <v>19.5978</v>
       </c>
-      <c r="AF34" s="8" t="n">
+      <c r="AF34" s="7" t="n">
         <v>17.0888</v>
       </c>
-      <c r="AG34" s="8" t="n">
+      <c r="AG34" s="7" t="n">
         <v>19.0727</v>
       </c>
-      <c r="AH34" s="7" t="n">
+      <c r="AH34" s="6" t="n">
         <v>29.7895</v>
       </c>
-      <c r="AI34" s="7" t="n">
+      <c r="AI34" s="6" t="n">
         <v>24.05</v>
       </c>
-      <c r="AJ34" s="7" t="n">
+      <c r="AJ34" s="6" t="n">
         <v>29.6577</v>
       </c>
-      <c r="AK34" s="7" t="n">
+      <c r="AK34" s="6" t="n">
         <v>24.2447</v>
       </c>
-      <c r="AL34" s="7" t="n">
+      <c r="AL34" s="6" t="n">
         <v>26.7112</v>
       </c>
-      <c r="AM34" s="8" t="n">
+      <c r="AM34" s="7" t="n">
         <v>23.1762</v>
       </c>
-      <c r="AN34" s="8" t="n">
+      <c r="AN34" s="7" t="n">
         <v>30.6127</v>
       </c>
-      <c r="AO34" s="8" t="n">
+      <c r="AO34" s="7" t="n">
         <v>24.9414</v>
       </c>
     </row>
@@ -10988,121 +10371,121 @@
       <c r="A35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="7" t="n">
+      <c r="C35" s="6" t="n">
         <v>16.2245</v>
       </c>
-      <c r="D35" s="7" t="n">
+      <c r="D35" s="6" t="n">
         <v>15.1157</v>
       </c>
-      <c r="E35" s="7" t="n">
+      <c r="E35" s="6" t="n">
         <v>15.6607</v>
       </c>
-      <c r="F35" s="7" t="n">
+      <c r="F35" s="6" t="n">
         <v>16.5138</v>
       </c>
-      <c r="G35" s="7" t="n">
+      <c r="G35" s="6" t="n">
         <v>16.5036</v>
       </c>
-      <c r="H35" s="8" t="n">
+      <c r="H35" s="7" t="n">
         <v>17.6841</v>
       </c>
-      <c r="I35" s="8" t="n">
+      <c r="I35" s="7" t="n">
         <v>16.8089</v>
       </c>
-      <c r="J35" s="8" t="n">
+      <c r="J35" s="7" t="n">
         <v>14.9844</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="7" t="n">
         <v>16.0744</v>
       </c>
-      <c r="L35" s="8" t="n">
+      <c r="L35" s="7" t="n">
         <v>22.783</v>
       </c>
-      <c r="M35" s="7" t="n">
+      <c r="M35" s="6" t="n">
         <v>25.0203</v>
       </c>
-      <c r="N35" s="7" t="n">
+      <c r="N35" s="6" t="n">
         <v>24.5649</v>
       </c>
-      <c r="O35" s="7" t="n">
+      <c r="O35" s="6" t="n">
         <v>20.177</v>
       </c>
-      <c r="P35" s="7" t="n">
+      <c r="P35" s="6" t="n">
         <v>22.5968</v>
       </c>
-      <c r="Q35" s="7" t="n">
+      <c r="Q35" s="6" t="n">
         <v>18.3766</v>
       </c>
-      <c r="R35" s="8" t="n">
+      <c r="R35" s="7" t="n">
         <v>27.5511</v>
       </c>
-      <c r="S35" s="8" t="n">
+      <c r="S35" s="7" t="n">
         <v>21.2061</v>
       </c>
-      <c r="T35" s="8" t="n">
+      <c r="T35" s="7" t="n">
         <v>27.4697</v>
       </c>
       <c r="V35" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W35" s="6" t="s">
+      <c r="W35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X35" s="7" t="n">
+      <c r="X35" s="6" t="n">
         <v>16.2245</v>
       </c>
-      <c r="Y35" s="7" t="n">
+      <c r="Y35" s="6" t="n">
         <v>15.1157</v>
       </c>
-      <c r="Z35" s="7" t="n">
+      <c r="Z35" s="6" t="n">
         <v>15.6607</v>
       </c>
-      <c r="AA35" s="7" t="n">
+      <c r="AA35" s="6" t="n">
         <v>16.5138</v>
       </c>
-      <c r="AB35" s="7" t="n">
+      <c r="AB35" s="6" t="n">
         <v>16.5036</v>
       </c>
-      <c r="AC35" s="8" t="n">
+      <c r="AC35" s="7" t="n">
         <v>17.6841</v>
       </c>
-      <c r="AD35" s="8" t="n">
+      <c r="AD35" s="7" t="n">
         <v>16.8089</v>
       </c>
-      <c r="AE35" s="8" t="n">
+      <c r="AE35" s="7" t="n">
         <v>14.9844</v>
       </c>
-      <c r="AF35" s="8" t="n">
+      <c r="AF35" s="7" t="n">
         <v>16.0744</v>
       </c>
-      <c r="AG35" s="8" t="n">
+      <c r="AG35" s="7" t="n">
         <v>22.783</v>
       </c>
-      <c r="AH35" s="7" t="n">
+      <c r="AH35" s="6" t="n">
         <v>25.0203</v>
       </c>
-      <c r="AI35" s="7" t="n">
+      <c r="AI35" s="6" t="n">
         <v>24.5649</v>
       </c>
-      <c r="AJ35" s="7" t="n">
+      <c r="AJ35" s="6" t="n">
         <v>20.177</v>
       </c>
-      <c r="AK35" s="7" t="n">
+      <c r="AK35" s="6" t="n">
         <v>22.5968</v>
       </c>
-      <c r="AL35" s="7" t="n">
+      <c r="AL35" s="6" t="n">
         <v>18.3766</v>
       </c>
-      <c r="AM35" s="8" t="n">
+      <c r="AM35" s="7" t="n">
         <v>27.5511</v>
       </c>
-      <c r="AN35" s="8" t="n">
+      <c r="AN35" s="7" t="n">
         <v>21.2061</v>
       </c>
-      <c r="AO35" s="8" t="n">
+      <c r="AO35" s="7" t="n">
         <v>27.4697</v>
       </c>
     </row>
@@ -11110,121 +10493,121 @@
       <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="7" t="n">
+      <c r="C36" s="6" t="n">
         <v>16.7082</v>
       </c>
-      <c r="D36" s="7" t="n">
+      <c r="D36" s="6" t="n">
         <v>14.4554</v>
       </c>
-      <c r="E36" s="7" t="n">
+      <c r="E36" s="6" t="n">
         <v>14.855</v>
       </c>
-      <c r="F36" s="7" t="n">
+      <c r="F36" s="6" t="n">
         <v>17.4746</v>
       </c>
-      <c r="G36" s="7" t="n">
+      <c r="G36" s="6" t="n">
         <v>13.898</v>
       </c>
-      <c r="H36" s="8" t="n">
+      <c r="H36" s="7" t="n">
         <v>15.1354</v>
       </c>
-      <c r="I36" s="8" t="n">
+      <c r="I36" s="7" t="n">
         <v>21.149</v>
       </c>
-      <c r="J36" s="8" t="n">
+      <c r="J36" s="7" t="n">
         <v>19.4643</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="7" t="n">
         <v>14.9675</v>
       </c>
-      <c r="L36" s="8" t="n">
+      <c r="L36" s="7" t="n">
         <v>22.5826</v>
       </c>
-      <c r="M36" s="7" t="n">
+      <c r="M36" s="6" t="n">
         <v>46.9535</v>
       </c>
-      <c r="N36" s="7" t="n">
+      <c r="N36" s="6" t="n">
         <v>21.4472</v>
       </c>
-      <c r="O36" s="7" t="n">
+      <c r="O36" s="6" t="n">
         <v>30.1591</v>
       </c>
-      <c r="P36" s="7" t="n">
+      <c r="P36" s="6" t="n">
         <v>37.5938</v>
       </c>
-      <c r="Q36" s="7" t="n">
+      <c r="Q36" s="6" t="n">
         <v>29.7791</v>
       </c>
-      <c r="R36" s="8" t="n">
+      <c r="R36" s="7" t="n">
         <v>19.5714</v>
       </c>
-      <c r="S36" s="8" t="n">
+      <c r="S36" s="7" t="n">
         <v>41.5752</v>
       </c>
-      <c r="T36" s="8" t="n">
+      <c r="T36" s="7" t="n">
         <v>23.3274</v>
       </c>
       <c r="V36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="W36" s="6" t="s">
+      <c r="W36" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="X36" s="7" t="n">
+      <c r="X36" s="6" t="n">
         <v>16.7082</v>
       </c>
-      <c r="Y36" s="7" t="n">
+      <c r="Y36" s="6" t="n">
         <v>14.4554</v>
       </c>
-      <c r="Z36" s="7" t="n">
+      <c r="Z36" s="6" t="n">
         <v>14.855</v>
       </c>
-      <c r="AA36" s="7" t="n">
+      <c r="AA36" s="6" t="n">
         <v>17.4746</v>
       </c>
-      <c r="AB36" s="7" t="n">
+      <c r="AB36" s="6" t="n">
         <v>13.898</v>
       </c>
-      <c r="AC36" s="8" t="n">
+      <c r="AC36" s="7" t="n">
         <v>15.1354</v>
       </c>
-      <c r="AD36" s="8" t="n">
+      <c r="AD36" s="7" t="n">
         <v>21.149</v>
       </c>
-      <c r="AE36" s="8" t="n">
+      <c r="AE36" s="7" t="n">
         <v>19.4643</v>
       </c>
-      <c r="AF36" s="8" t="n">
+      <c r="AF36" s="7" t="n">
         <v>14.9675</v>
       </c>
-      <c r="AG36" s="8" t="n">
+      <c r="AG36" s="7" t="n">
         <v>22.5826</v>
       </c>
-      <c r="AH36" s="7" t="n">
+      <c r="AH36" s="6" t="n">
         <v>46.9535</v>
       </c>
-      <c r="AI36" s="7" t="n">
+      <c r="AI36" s="6" t="n">
         <v>21.4472</v>
       </c>
-      <c r="AJ36" s="7" t="n">
+      <c r="AJ36" s="6" t="n">
         <v>30.1591</v>
       </c>
-      <c r="AK36" s="7" t="n">
+      <c r="AK36" s="6" t="n">
         <v>37.5938</v>
       </c>
-      <c r="AL36" s="7" t="n">
+      <c r="AL36" s="6" t="n">
         <v>29.7791</v>
       </c>
-      <c r="AM36" s="8" t="n">
+      <c r="AM36" s="7" t="n">
         <v>19.5714</v>
       </c>
-      <c r="AN36" s="8" t="n">
+      <c r="AN36" s="7" t="n">
         <v>41.5752</v>
       </c>
-      <c r="AO36" s="8" t="n">
+      <c r="AO36" s="7" t="n">
         <v>23.3274</v>
       </c>
     </row>
